--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9891273496630441</v>
+        <v>0.9900444919717722</v>
       </c>
       <c r="D2">
-        <v>1.00844251587314</v>
+        <v>1.009029990741638</v>
       </c>
       <c r="E2">
-        <v>0.9963096837736607</v>
+        <v>0.9972296534727991</v>
       </c>
       <c r="F2">
-        <v>0.9912203792341374</v>
+        <v>0.9972553607220038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039680338849657</v>
+        <v>1.03702806800949</v>
       </c>
       <c r="J2">
-        <v>1.011638195353817</v>
+        <v>1.012527103377472</v>
       </c>
       <c r="K2">
-        <v>1.019785472837889</v>
+        <v>1.020364940747651</v>
       </c>
       <c r="L2">
-        <v>1.007820671114458</v>
+        <v>1.00872771902905</v>
       </c>
       <c r="M2">
-        <v>1.002803398575054</v>
+        <v>1.008753065629747</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9969900802805753</v>
+        <v>0.9977019078392312</v>
       </c>
       <c r="D3">
-        <v>1.01443664711909</v>
+        <v>1.014865590365844</v>
       </c>
       <c r="E3">
-        <v>1.00288903447043</v>
+        <v>1.003614094523553</v>
       </c>
       <c r="F3">
-        <v>0.9996229149282647</v>
+        <v>1.005190547396063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042469262625987</v>
+        <v>1.039502996730258</v>
       </c>
       <c r="J3">
-        <v>1.017563136417589</v>
+        <v>1.01825541782079</v>
       </c>
       <c r="K3">
-        <v>1.024888081503509</v>
+        <v>1.025311731891985</v>
       </c>
       <c r="L3">
-        <v>1.013485082544602</v>
+        <v>1.014200940255157</v>
       </c>
       <c r="M3">
-        <v>1.010260622903085</v>
+        <v>1.015757442218988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001910842517175</v>
+        <v>1.00250076474595</v>
       </c>
       <c r="D4">
-        <v>1.018189726409481</v>
+        <v>1.018525118768101</v>
       </c>
       <c r="E4">
-        <v>1.007012329650592</v>
+        <v>1.007621363969718</v>
       </c>
       <c r="F4">
-        <v>1.004887514863204</v>
+        <v>1.010168009236152</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044198941639197</v>
+        <v>1.041041211977066</v>
       </c>
       <c r="J4">
-        <v>1.021265794729279</v>
+        <v>1.021840716311883</v>
       </c>
       <c r="K4">
-        <v>1.028073464482297</v>
+        <v>1.028404987274879</v>
       </c>
       <c r="L4">
-        <v>1.017026852403789</v>
+        <v>1.017628667939954</v>
       </c>
       <c r="M4">
-        <v>1.014927307636999</v>
+        <v>1.020145244987357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003941984706747</v>
+        <v>1.004483047517558</v>
       </c>
       <c r="D5">
-        <v>1.019739181996411</v>
+        <v>1.020037227183774</v>
       </c>
       <c r="E5">
-        <v>1.008715567142739</v>
+        <v>1.00927804091386</v>
       </c>
       <c r="F5">
-        <v>1.007062036006724</v>
+        <v>1.012225149259666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044909058336384</v>
+        <v>1.041673469629023</v>
       </c>
       <c r="J5">
-        <v>1.022792784889226</v>
+        <v>1.023320536883055</v>
       </c>
       <c r="K5">
-        <v>1.029386291644382</v>
+        <v>1.029680996433685</v>
       </c>
       <c r="L5">
-        <v>1.018487938011455</v>
+        <v>1.019043938611527</v>
       </c>
       <c r="M5">
-        <v>1.016853488099998</v>
+        <v>1.021957275564966</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004280886928627</v>
+        <v>1.004813879994048</v>
       </c>
       <c r="D6">
-        <v>1.019997727475039</v>
+        <v>1.020289613298561</v>
       </c>
       <c r="E6">
-        <v>1.008999829007237</v>
+        <v>1.009554609698482</v>
       </c>
       <c r="F6">
-        <v>1.007424947227846</v>
+        <v>1.012568538381301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045027315449406</v>
+        <v>1.041778803588604</v>
       </c>
       <c r="J6">
-        <v>1.023047486217505</v>
+        <v>1.023567440186619</v>
       </c>
       <c r="K6">
-        <v>1.029605220702118</v>
+        <v>1.029893851198186</v>
       </c>
       <c r="L6">
-        <v>1.018731672342131</v>
+        <v>1.019280100221881</v>
       </c>
       <c r="M6">
-        <v>1.017174871656601</v>
+        <v>1.022259666309479</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001938127235122</v>
+        <v>1.002527387495416</v>
       </c>
       <c r="D7">
-        <v>1.01821053951598</v>
+        <v>1.018545425274378</v>
       </c>
       <c r="E7">
-        <v>1.0070352046834</v>
+        <v>1.007643608393562</v>
       </c>
       <c r="F7">
-        <v>1.004916719848351</v>
+        <v>1.010195633075322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04420849608056</v>
+        <v>1.041049715931565</v>
       </c>
       <c r="J7">
-        <v>1.021286312531455</v>
+        <v>1.021860595549935</v>
       </c>
       <c r="K7">
-        <v>1.028091107976646</v>
+        <v>1.028422131498852</v>
       </c>
       <c r="L7">
-        <v>1.017046482912191</v>
+        <v>1.017647678133331</v>
       </c>
       <c r="M7">
-        <v>1.01495318274445</v>
+        <v>1.020169583029563</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9918206969144753</v>
+        <v>0.9926660362103957</v>
       </c>
       <c r="D8">
-        <v>1.010495333356885</v>
+        <v>1.011027246017661</v>
       </c>
       <c r="E8">
-        <v>0.9985621372244441</v>
+        <v>0.9994140176516529</v>
       </c>
       <c r="F8">
-        <v>0.9940973706647531</v>
+        <v>0.9999710400427719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040638955366124</v>
+        <v>1.037878033816975</v>
       </c>
       <c r="J8">
-        <v>1.013668853439732</v>
+        <v>1.014489141445839</v>
       </c>
       <c r="K8">
-        <v>1.021534990925295</v>
+        <v>1.022059889634895</v>
       </c>
       <c r="L8">
-        <v>1.009761620565963</v>
+        <v>1.010601932295202</v>
       </c>
       <c r="M8">
-        <v>1.005357894946822</v>
+        <v>1.011151403623423</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9725913805797461</v>
+        <v>0.9739841351329138</v>
       </c>
       <c r="D9">
-        <v>0.9958524463794128</v>
+        <v>0.9968102533471573</v>
       </c>
       <c r="E9">
-        <v>0.9825104967458355</v>
+        <v>0.9838792967892709</v>
       </c>
       <c r="F9">
-        <v>0.973582547828919</v>
+        <v>0.9806382530691512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033729533952742</v>
+        <v>1.031768276341811</v>
       </c>
       <c r="J9">
-        <v>0.9991505701730495</v>
+        <v>1.000490255405662</v>
       </c>
       <c r="K9">
-        <v>1.009013175086333</v>
+        <v>1.009955294828939</v>
       </c>
       <c r="L9">
-        <v>0.9958938489294965</v>
+        <v>0.9972394505556824</v>
       </c>
       <c r="M9">
-        <v>0.987119282262058</v>
+        <v>0.9940534714875253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9586329453021747</v>
+        <v>0.960476446870942</v>
       </c>
       <c r="D10">
-        <v>0.9852477604214027</v>
+        <v>0.9865586774423222</v>
       </c>
       <c r="E10">
-        <v>0.9709036916878904</v>
+        <v>0.9726941637041431</v>
       </c>
       <c r="F10">
-        <v>0.9587232222320724</v>
+        <v>0.9666859427717498</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028633851107745</v>
+        <v>1.027286694601713</v>
       </c>
       <c r="J10">
-        <v>0.9885897103688022</v>
+        <v>0.9903509442799898</v>
       </c>
       <c r="K10">
-        <v>0.9998885793700568</v>
+        <v>1.001174935379449</v>
       </c>
       <c r="L10">
-        <v>0.9858189416596441</v>
+        <v>0.987574578767779</v>
       </c>
       <c r="M10">
-        <v>0.9738799991393181</v>
+        <v>0.9816839219000041</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9522654367335454</v>
+        <v>0.9543306954922526</v>
       </c>
       <c r="D11">
-        <v>0.980418685276318</v>
+        <v>0.9819036562677446</v>
       </c>
       <c r="E11">
-        <v>0.9656220656784821</v>
+        <v>0.9676186366099492</v>
       </c>
       <c r="F11">
-        <v>0.9519521319612642</v>
+        <v>0.9603442022642715</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026291637085187</v>
+        <v>1.025233740520268</v>
       </c>
       <c r="J11">
-        <v>0.9837682842368201</v>
+        <v>0.9857350164936014</v>
       </c>
       <c r="K11">
-        <v>0.995719571648277</v>
+        <v>0.9971751071291955</v>
       </c>
       <c r="L11">
-        <v>0.981222785721283</v>
+        <v>0.9831781925718771</v>
       </c>
       <c r="M11">
-        <v>0.9678408422126379</v>
+        <v>0.976054828270534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9498462682998476</v>
+        <v>0.9519985700717847</v>
       </c>
       <c r="D12">
-        <v>0.9785855524840615</v>
+        <v>0.9801388665221896</v>
       </c>
       <c r="E12">
-        <v>0.9636176622656303</v>
+        <v>0.9656948853954319</v>
       </c>
       <c r="F12">
-        <v>0.9493807112431328</v>
+        <v>0.9579386633119008</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025399251392107</v>
+        <v>1.024452741476997</v>
       </c>
       <c r="J12">
-        <v>0.98193607980276</v>
+        <v>0.9839831455950855</v>
       </c>
       <c r="K12">
-        <v>0.9941348499437235</v>
+        <v>0.9956567297546008</v>
       </c>
       <c r="L12">
-        <v>0.9794767382680564</v>
+        <v>0.9815102116477757</v>
       </c>
       <c r="M12">
-        <v>0.9655464933460488</v>
+        <v>0.9739186326350086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9503677275640791</v>
+        <v>0.9525011343070315</v>
       </c>
       <c r="D13">
-        <v>0.9789806154843163</v>
+        <v>0.9805190931926445</v>
       </c>
       <c r="E13">
-        <v>0.9640496136522931</v>
+        <v>0.9661093407606838</v>
       </c>
       <c r="F13">
-        <v>0.9499349409123041</v>
+        <v>0.9584570044753973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025591719355625</v>
+        <v>1.024621130332653</v>
       </c>
       <c r="J13">
-        <v>0.9823310340357814</v>
+        <v>0.9843606767304496</v>
       </c>
       <c r="K13">
-        <v>0.9944764754297992</v>
+        <v>0.9959839567706945</v>
       </c>
       <c r="L13">
-        <v>0.9798530947579547</v>
+        <v>0.9818696381344248</v>
       </c>
       <c r="M13">
-        <v>0.9660410437048855</v>
+        <v>0.9743789795574759</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9520666032478852</v>
+        <v>0.9541389572220568</v>
       </c>
       <c r="D14">
-        <v>0.9802679855498806</v>
+        <v>0.9817585271248427</v>
       </c>
       <c r="E14">
-        <v>0.9654572757779915</v>
+        <v>0.9674604261447475</v>
       </c>
       <c r="F14">
-        <v>0.9517407631043155</v>
+        <v>0.9601464087394234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026218341416827</v>
+        <v>1.025169568871252</v>
       </c>
       <c r="J14">
-        <v>0.9836177016273393</v>
+        <v>0.9855909890154527</v>
       </c>
       <c r="K14">
-        <v>0.9955893374985958</v>
+        <v>0.9970502824048358</v>
       </c>
       <c r="L14">
-        <v>0.9810792726528539</v>
+        <v>0.9830410502655745</v>
       </c>
       <c r="M14">
-        <v>0.9676522661510391</v>
+        <v>0.9758792008285547</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531060059734378</v>
+        <v>0.9551413853557816</v>
       </c>
       <c r="D15">
-        <v>0.9810558333686596</v>
+        <v>0.9825173463244345</v>
       </c>
       <c r="E15">
-        <v>0.966318806825652</v>
+        <v>0.9682876603786383</v>
       </c>
       <c r="F15">
-        <v>0.9528457380660206</v>
+        <v>0.9611805333629988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026601393247891</v>
+        <v>1.025504986084979</v>
       </c>
       <c r="J15">
-        <v>0.9844048561977891</v>
+        <v>0.9863439700943001</v>
       </c>
       <c r="K15">
-        <v>0.996270104924467</v>
+        <v>0.9977028575653447</v>
       </c>
       <c r="L15">
-        <v>0.9818294945634453</v>
+        <v>0.9837580586767426</v>
       </c>
       <c r="M15">
-        <v>0.9686380512030567</v>
+        <v>0.9767973950286409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590482796700532</v>
+        <v>0.9608776786193243</v>
       </c>
       <c r="D16">
-        <v>0.985562944659767</v>
+        <v>0.9868627973939654</v>
       </c>
       <c r="E16">
-        <v>0.9712484871307185</v>
+        <v>0.973025822018011</v>
       </c>
       <c r="F16">
-        <v>0.9591650308917401</v>
+        <v>0.9671001009886336</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028786273173081</v>
+        <v>1.027420446678429</v>
       </c>
       <c r="J16">
-        <v>0.9889041311446451</v>
+        <v>0.9906522551730047</v>
       </c>
       <c r="K16">
-        <v>1.000160390019831</v>
+        <v>1.001435980850607</v>
       </c>
       <c r="L16">
-        <v>0.9861187453319794</v>
+        <v>0.9878616348911013</v>
       </c>
       <c r="M16">
-        <v>0.9742739242988491</v>
+        <v>0.9820514029486186</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9626855651372052</v>
+        <v>0.9643933093654818</v>
       </c>
       <c r="D17">
-        <v>0.9883241534258171</v>
+        <v>0.9895285945874748</v>
       </c>
       <c r="E17">
-        <v>0.974269528643202</v>
+        <v>0.9759333872589887</v>
       </c>
       <c r="F17">
-        <v>0.9630349910981378</v>
+        <v>0.9707297054306083</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030119135239695</v>
+        <v>1.02859084302545</v>
       </c>
       <c r="J17">
-        <v>0.991657254086867</v>
+        <v>0.9932920783917294</v>
       </c>
       <c r="K17">
-        <v>1.002540047213103</v>
+        <v>1.003722750829298</v>
       </c>
       <c r="L17">
-        <v>0.9887442658477305</v>
+        <v>0.9903769734626803</v>
       </c>
       <c r="M17">
-        <v>0.9777237546562572</v>
+        <v>0.9852711801410717</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.96477633368698</v>
+        <v>0.9664156305395851</v>
       </c>
       <c r="D18">
-        <v>0.9899121183433892</v>
+        <v>0.991062908860072</v>
       </c>
       <c r="E18">
-        <v>0.9760072805692684</v>
+        <v>0.9776071751244665</v>
       </c>
       <c r="F18">
-        <v>0.9652601973289053</v>
+        <v>0.9728181782842147</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03088362248379</v>
+        <v>1.029262786471772</v>
       </c>
       <c r="J18">
-        <v>0.9932394257791316</v>
+        <v>0.9948103372340437</v>
       </c>
       <c r="K18">
-        <v>1.003907283779827</v>
+        <v>1.005037712176207</v>
       </c>
       <c r="L18">
-        <v>0.9902534230416891</v>
+        <v>0.9918239668102393</v>
       </c>
       <c r="M18">
-        <v>0.9797067964614898</v>
+        <v>0.9871232018603049</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654841584807058</v>
+        <v>0.9671005242895361</v>
       </c>
       <c r="D19">
-        <v>0.9904498449925866</v>
+        <v>0.9915826675977997</v>
       </c>
       <c r="E19">
-        <v>0.9765957911076786</v>
+        <v>0.978174237621336</v>
       </c>
       <c r="F19">
-        <v>0.9660136539836749</v>
+        <v>0.973525575158643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031142152114477</v>
+        <v>1.029490125637207</v>
       </c>
       <c r="J19">
-        <v>0.9937750002344043</v>
+        <v>0.9953244726937778</v>
       </c>
       <c r="K19">
-        <v>1.004370047325745</v>
+        <v>1.005482961228512</v>
       </c>
       <c r="L19">
-        <v>0.9907643342879369</v>
+        <v>0.9923140243584422</v>
       </c>
       <c r="M19">
-        <v>0.9803781541634289</v>
+        <v>0.9877504001322913</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9622985408420924</v>
+        <v>0.964019073226548</v>
       </c>
       <c r="D20">
-        <v>0.9880302650254201</v>
+        <v>0.9892447325730885</v>
       </c>
       <c r="E20">
-        <v>0.9739479481499328</v>
+        <v>0.9756237478703979</v>
       </c>
       <c r="F20">
-        <v>0.9626231372715331</v>
+        <v>0.970343275473626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0299774844987</v>
+        <v>1.028466390838578</v>
       </c>
       <c r="J20">
-        <v>0.9913643460123399</v>
+        <v>0.9930110979228427</v>
       </c>
       <c r="K20">
-        <v>1.002286904619709</v>
+        <v>1.003479374029267</v>
       </c>
       <c r="L20">
-        <v>0.9884649003842308</v>
+        <v>0.9901092084671614</v>
       </c>
       <c r="M20">
-        <v>0.9773566736432815</v>
+        <v>0.9849284488493695</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9515678648507334</v>
+        <v>0.9536580621451413</v>
       </c>
       <c r="D21">
-        <v>0.9798900079514131</v>
+        <v>0.9813945589358439</v>
       </c>
       <c r="E21">
-        <v>0.9650439660662096</v>
+        <v>0.9670636586001019</v>
       </c>
       <c r="F21">
-        <v>0.9512105991587191</v>
+        <v>0.9596503420316257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026034452243729</v>
+        <v>1.025008590057582</v>
       </c>
       <c r="J21">
-        <v>0.9832399855807612</v>
+        <v>0.9852297526883429</v>
       </c>
       <c r="K21">
-        <v>0.9952626558374775</v>
+        <v>0.996737203473991</v>
       </c>
       <c r="L21">
-        <v>0.9807192985882021</v>
+        <v>0.9826970919362101</v>
       </c>
       <c r="M21">
-        <v>0.9671792579118869</v>
+        <v>0.9754387111663897</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9445053381925006</v>
+        <v>0.9468554484532189</v>
       </c>
       <c r="D22">
-        <v>0.9745416335485392</v>
+        <v>0.9762502720878747</v>
       </c>
       <c r="E22">
-        <v>0.959196817160777</v>
+        <v>0.9614568139322258</v>
       </c>
       <c r="F22">
-        <v>0.9437055964914193</v>
+        <v>0.9526354224647646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023424584582181</v>
+        <v>1.02272689739449</v>
       </c>
       <c r="J22">
-        <v>0.9778904044390383</v>
+        <v>0.9801193622388866</v>
       </c>
       <c r="K22">
-        <v>0.9906348773623437</v>
+        <v>0.9923073684872422</v>
       </c>
       <c r="L22">
-        <v>0.9756223723247368</v>
+        <v>0.9778325403444244</v>
       </c>
       <c r="M22">
-        <v>0.9604812975588566</v>
+        <v>0.9692074305490043</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9482812836218369</v>
+        <v>0.9504907345337156</v>
       </c>
       <c r="D23">
-        <v>0.9774001531476487</v>
+        <v>0.9789983418706028</v>
       </c>
       <c r="E23">
-        <v>0.9623216501317235</v>
+        <v>0.9644517515415595</v>
       </c>
       <c r="F23">
-        <v>0.9477175324371762</v>
+        <v>0.9563836338439278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024821264937751</v>
+        <v>1.023947249384996</v>
       </c>
       <c r="J23">
-        <v>0.9807507065749617</v>
+        <v>0.9828504177790747</v>
       </c>
       <c r="K23">
-        <v>0.9931094708311158</v>
+        <v>0.9946748877189318</v>
       </c>
       <c r="L23">
-        <v>0.9783472664277638</v>
+        <v>0.9804318903775011</v>
       </c>
       <c r="M23">
-        <v>0.9640622793251278</v>
+        <v>0.9725374467674747</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9624735152398085</v>
+        <v>0.9641882614943316</v>
       </c>
       <c r="D24">
-        <v>0.9881631301106124</v>
+        <v>0.9893730610188904</v>
       </c>
       <c r="E24">
-        <v>0.9740933315391279</v>
+        <v>0.9757637287546368</v>
       </c>
       <c r="F24">
-        <v>0.9628093349905918</v>
+        <v>0.9705179746073784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030041530239584</v>
+        <v>1.028522658465517</v>
       </c>
       <c r="J24">
-        <v>0.991496771442773</v>
+        <v>0.9931381271069289</v>
       </c>
       <c r="K24">
-        <v>1.002401352817003</v>
+        <v>1.003589403635088</v>
       </c>
       <c r="L24">
-        <v>0.9885912021409901</v>
+        <v>0.9902302620099351</v>
       </c>
       <c r="M24">
-        <v>0.9775226315694739</v>
+        <v>0.9850833944597972</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.977747339056226</v>
+        <v>0.9789852402746916</v>
       </c>
       <c r="D25">
-        <v>0.9997752928825595</v>
+        <v>1.000612173331057</v>
       </c>
       <c r="E25">
-        <v>0.9868075239150348</v>
+        <v>0.9880306191295551</v>
       </c>
       <c r="F25">
-        <v>0.979077658481177</v>
+        <v>0.9858092346818988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035596120859257</v>
+        <v>1.033415074472282</v>
       </c>
       <c r="J25">
-        <v>1.003047523463227</v>
+        <v>1.00424113922111</v>
       </c>
       <c r="K25">
-        <v>1.012377098141291</v>
+        <v>1.013200993524346</v>
       </c>
       <c r="L25">
-        <v>0.9996141475800608</v>
+        <v>1.000817630281815</v>
       </c>
       <c r="M25">
-        <v>0.992009688835235</v>
+        <v>0.9986319123445497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9900444919717722</v>
+        <v>1.020525125049179</v>
       </c>
       <c r="D2">
-        <v>1.009029990741638</v>
+        <v>1.035461410544495</v>
       </c>
       <c r="E2">
-        <v>0.9972296534727991</v>
+        <v>1.023868843720976</v>
       </c>
       <c r="F2">
-        <v>0.9972553607220038</v>
+        <v>1.03703512219111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03702806800949</v>
+        <v>1.050492540949944</v>
       </c>
       <c r="J2">
-        <v>1.012527103377472</v>
+        <v>1.042108797094153</v>
       </c>
       <c r="K2">
-        <v>1.020364940747651</v>
+        <v>1.046447866064311</v>
       </c>
       <c r="L2">
-        <v>1.00872771902905</v>
+        <v>1.035005368907318</v>
       </c>
       <c r="M2">
-        <v>1.008753065629747</v>
+        <v>1.048001528555689</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977019078392312</v>
+        <v>1.02613607684818</v>
       </c>
       <c r="D3">
-        <v>1.014865590365844</v>
+        <v>1.039772692272046</v>
       </c>
       <c r="E3">
-        <v>1.003614094523553</v>
+        <v>1.028470387238456</v>
       </c>
       <c r="F3">
-        <v>1.005190547396063</v>
+        <v>1.042133808527698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039502996730258</v>
+        <v>1.052404173061102</v>
       </c>
       <c r="J3">
-        <v>1.01825541782079</v>
+        <v>1.045938745052193</v>
       </c>
       <c r="K3">
-        <v>1.025311731891985</v>
+        <v>1.049920760795438</v>
       </c>
       <c r="L3">
-        <v>1.014200940255157</v>
+        <v>1.038751496327036</v>
       </c>
       <c r="M3">
-        <v>1.015757442218988</v>
+        <v>1.052254534361167</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00250076474595</v>
+        <v>1.029682109594163</v>
       </c>
       <c r="D4">
-        <v>1.018525118768101</v>
+        <v>1.042500591967042</v>
       </c>
       <c r="E4">
-        <v>1.007621363969718</v>
+        <v>1.031384049196565</v>
       </c>
       <c r="F4">
-        <v>1.010168009236152</v>
+        <v>1.04536239497095</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041041211977066</v>
+        <v>1.053603025132602</v>
       </c>
       <c r="J4">
-        <v>1.021840716311883</v>
+        <v>1.0483558572877</v>
       </c>
       <c r="K4">
-        <v>1.028404987274879</v>
+        <v>1.052111767190687</v>
       </c>
       <c r="L4">
-        <v>1.017628667939954</v>
+        <v>1.04111789566938</v>
       </c>
       <c r="M4">
-        <v>1.020145244987357</v>
+        <v>1.054942508134732</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004483047517558</v>
+        <v>1.031153461676365</v>
       </c>
       <c r="D5">
-        <v>1.020037227183774</v>
+        <v>1.043633188876085</v>
       </c>
       <c r="E5">
-        <v>1.00927804091386</v>
+        <v>1.03259428887057</v>
       </c>
       <c r="F5">
-        <v>1.012225149259666</v>
+        <v>1.046703485903192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041673469629023</v>
+        <v>1.054098197427135</v>
       </c>
       <c r="J5">
-        <v>1.023320536883055</v>
+        <v>1.049357938315828</v>
       </c>
       <c r="K5">
-        <v>1.029680996433685</v>
+        <v>1.053019914953457</v>
       </c>
       <c r="L5">
-        <v>1.019043938611527</v>
+        <v>1.042099473090977</v>
       </c>
       <c r="M5">
-        <v>1.021957275564966</v>
+        <v>1.056057807777615</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004813879994048</v>
+        <v>1.03139939457632</v>
       </c>
       <c r="D6">
-        <v>1.020289613298561</v>
+        <v>1.043822539709825</v>
       </c>
       <c r="E6">
-        <v>1.009554609698482</v>
+        <v>1.032796650915895</v>
       </c>
       <c r="F6">
-        <v>1.012568538381301</v>
+        <v>1.046927730078653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041778803588604</v>
+        <v>1.054180829816738</v>
       </c>
       <c r="J6">
-        <v>1.023567440186619</v>
+        <v>1.049525382529631</v>
       </c>
       <c r="K6">
-        <v>1.029893851198186</v>
+        <v>1.053171651484428</v>
       </c>
       <c r="L6">
-        <v>1.019280100221881</v>
+        <v>1.042263521743736</v>
       </c>
       <c r="M6">
-        <v>1.022259666309479</v>
+        <v>1.056244224787839</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002527387495416</v>
+        <v>1.029701845001748</v>
       </c>
       <c r="D7">
-        <v>1.018545425274378</v>
+        <v>1.042515780883193</v>
       </c>
       <c r="E7">
-        <v>1.007643608393562</v>
+        <v>1.031400277302039</v>
       </c>
       <c r="F7">
-        <v>1.010195633075322</v>
+        <v>1.045380377483758</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041049715931565</v>
+        <v>1.053609675945935</v>
       </c>
       <c r="J7">
-        <v>1.021860595549935</v>
+        <v>1.048369301724417</v>
       </c>
       <c r="K7">
-        <v>1.028422131498852</v>
+        <v>1.052123952154599</v>
       </c>
       <c r="L7">
-        <v>1.017647678133331</v>
+        <v>1.041131062964528</v>
       </c>
       <c r="M7">
-        <v>1.020169583029563</v>
+        <v>1.054957467913999</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9926660362103957</v>
+        <v>1.022439430080672</v>
       </c>
       <c r="D8">
-        <v>1.011027246017661</v>
+        <v>1.036931582211523</v>
       </c>
       <c r="E8">
-        <v>0.9994140176516529</v>
+        <v>1.025437561792374</v>
       </c>
       <c r="F8">
-        <v>0.9999710400427719</v>
+        <v>1.038773298579011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037878033816975</v>
+        <v>1.051146659480882</v>
       </c>
       <c r="J8">
-        <v>1.014489141445839</v>
+        <v>1.043416148869257</v>
       </c>
       <c r="K8">
-        <v>1.022059889634895</v>
+        <v>1.047633492245129</v>
       </c>
       <c r="L8">
-        <v>1.010601932295202</v>
+        <v>1.036283646072757</v>
       </c>
       <c r="M8">
-        <v>1.011151403623423</v>
+        <v>1.049452476312706</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9739841351329138</v>
+        <v>1.008952440514</v>
       </c>
       <c r="D9">
-        <v>0.9968102533471573</v>
+        <v>1.026590356590493</v>
       </c>
       <c r="E9">
-        <v>0.9838792967892709</v>
+        <v>1.014411630163191</v>
       </c>
       <c r="F9">
-        <v>0.9806382530691512</v>
+        <v>1.026556508567318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031768276341811</v>
+        <v>1.046500391489325</v>
       </c>
       <c r="J9">
-        <v>1.000490255405662</v>
+        <v>1.034192978102765</v>
       </c>
       <c r="K9">
-        <v>1.009955294828939</v>
+        <v>1.039266267408065</v>
       </c>
       <c r="L9">
-        <v>0.9972394505556824</v>
+        <v>1.027275137251783</v>
       </c>
       <c r="M9">
-        <v>0.9940534714875253</v>
+        <v>1.039232932905262</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.960476446870942</v>
+        <v>0.9994344202129991</v>
       </c>
       <c r="D10">
-        <v>0.9865586774423222</v>
+        <v>1.019317038644253</v>
       </c>
       <c r="E10">
-        <v>0.9726941637041431</v>
+        <v>1.006666962866766</v>
       </c>
       <c r="F10">
-        <v>0.9666859427717498</v>
+        <v>1.017975187215043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027286694601713</v>
+        <v>1.043175404227768</v>
       </c>
       <c r="J10">
-        <v>0.9903509442799898</v>
+        <v>1.027670495799528</v>
       </c>
       <c r="K10">
-        <v>1.001174935379449</v>
+        <v>1.033346062430114</v>
       </c>
       <c r="L10">
-        <v>0.987574578767779</v>
+        <v>1.020916877626546</v>
       </c>
       <c r="M10">
-        <v>0.9816839219000041</v>
+        <v>1.032027305315607</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9543306954922526</v>
+        <v>0.9951724195769714</v>
       </c>
       <c r="D11">
-        <v>0.9819036562677446</v>
+        <v>1.016067224427721</v>
       </c>
       <c r="E11">
-        <v>0.9676186366099492</v>
+        <v>1.003208781279347</v>
       </c>
       <c r="F11">
-        <v>0.9603442022642715</v>
+        <v>1.014143223336622</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025233740520268</v>
+        <v>1.041676320507737</v>
       </c>
       <c r="J11">
-        <v>0.9857350164936014</v>
+        <v>1.024747419801492</v>
       </c>
       <c r="K11">
-        <v>0.9971751071291955</v>
+        <v>1.030692366818471</v>
       </c>
       <c r="L11">
-        <v>0.9831781925718771</v>
+        <v>1.018070437329791</v>
       </c>
       <c r="M11">
-        <v>0.976054828270534</v>
+        <v>1.028803258670825</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9519985700717847</v>
+        <v>0.9935667176662754</v>
       </c>
       <c r="D12">
-        <v>0.9801388665221896</v>
+        <v>1.014844030627469</v>
       </c>
       <c r="E12">
-        <v>0.9656948853954319</v>
+        <v>1.001907479412769</v>
       </c>
       <c r="F12">
-        <v>0.9579386633119008</v>
+        <v>1.012701225476136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024452741476997</v>
+        <v>1.041110073430386</v>
       </c>
       <c r="J12">
-        <v>0.9839831455950855</v>
+        <v>1.023645863327421</v>
       </c>
       <c r="K12">
-        <v>0.9956567297546008</v>
+        <v>1.029692262965775</v>
       </c>
       <c r="L12">
-        <v>0.9815102116477757</v>
+        <v>1.016998226143825</v>
       </c>
       <c r="M12">
-        <v>0.9739186326350086</v>
+        <v>1.027589069506423</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9525011343070315</v>
+        <v>0.9939121942850806</v>
       </c>
       <c r="D13">
-        <v>0.9805190931926445</v>
+        <v>1.015107153664161</v>
       </c>
       <c r="E13">
-        <v>0.9661093407606838</v>
+        <v>1.002187390264161</v>
       </c>
       <c r="F13">
-        <v>0.9584570044753973</v>
+        <v>1.013011402291941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024621130332653</v>
+        <v>1.041231970255759</v>
       </c>
       <c r="J13">
-        <v>0.9843606767304496</v>
+        <v>1.023882881954224</v>
       </c>
       <c r="K13">
-        <v>0.9959839567706945</v>
+        <v>1.029907454891041</v>
       </c>
       <c r="L13">
-        <v>0.9818696381344248</v>
+        <v>1.01722890947194</v>
       </c>
       <c r="M13">
-        <v>0.9743789795574759</v>
+        <v>1.027850287248586</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9541389572220568</v>
+        <v>0.995040161906717</v>
       </c>
       <c r="D14">
-        <v>0.9817585271248427</v>
+        <v>1.015966448609452</v>
       </c>
       <c r="E14">
-        <v>0.9674604261447475</v>
+        <v>1.003101563956529</v>
       </c>
       <c r="F14">
-        <v>0.9601464087394234</v>
+        <v>1.014024414693981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025169568871252</v>
+        <v>1.041629709605113</v>
       </c>
       <c r="J14">
-        <v>0.9855909890154527</v>
+        <v>1.024656692840067</v>
       </c>
       <c r="K14">
-        <v>0.9970502824048358</v>
+        <v>1.030609996926121</v>
       </c>
       <c r="L14">
-        <v>0.9830410502655745</v>
+        <v>1.017982117819015</v>
       </c>
       <c r="M14">
-        <v>0.9758792008285547</v>
+        <v>1.02870323894824</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9551413853557816</v>
+        <v>0.9957320981611308</v>
       </c>
       <c r="D15">
-        <v>0.9825173463244345</v>
+        <v>1.016493728605052</v>
       </c>
       <c r="E15">
-        <v>0.9682876603786383</v>
+        <v>1.003662560134396</v>
       </c>
       <c r="F15">
-        <v>0.9611805333629988</v>
+        <v>1.014646058622548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025504986084979</v>
+        <v>1.041873505755468</v>
       </c>
       <c r="J15">
-        <v>0.9863439700943001</v>
+        <v>1.025131340230751</v>
       </c>
       <c r="K15">
-        <v>0.9977028575653447</v>
+        <v>1.031040920995547</v>
       </c>
       <c r="L15">
-        <v>0.9837580586767426</v>
+        <v>1.018444189381601</v>
       </c>
       <c r="M15">
-        <v>0.9767973950286409</v>
+        <v>1.029226534494044</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608776786193243</v>
+        <v>0.9997141891356689</v>
       </c>
       <c r="D16">
-        <v>0.9868627973939654</v>
+        <v>1.019530520558154</v>
       </c>
       <c r="E16">
-        <v>0.973025822018011</v>
+        <v>1.006894177673116</v>
       </c>
       <c r="F16">
-        <v>0.9671001009886336</v>
+        <v>1.018226955638728</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027420446678429</v>
+        <v>1.043273601087488</v>
       </c>
       <c r="J16">
-        <v>0.9906522551730047</v>
+        <v>1.027862329749702</v>
       </c>
       <c r="K16">
-        <v>1.001435980850607</v>
+        <v>1.033520207985597</v>
       </c>
       <c r="L16">
-        <v>0.9878616348911013</v>
+        <v>1.021103746034992</v>
       </c>
       <c r="M16">
-        <v>0.9820514029486186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.032238999629994</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643933093654818</v>
+        <v>1.002173396382587</v>
       </c>
       <c r="D17">
-        <v>0.9895285945874748</v>
+        <v>1.021407868297057</v>
       </c>
       <c r="E17">
-        <v>0.9759333872589887</v>
+        <v>1.008892543955177</v>
       </c>
       <c r="F17">
-        <v>0.9707297054306083</v>
+        <v>1.020441248433046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02859084302545</v>
+        <v>1.044135613321536</v>
       </c>
       <c r="J17">
-        <v>0.9932920783917294</v>
+        <v>1.029548309620671</v>
       </c>
       <c r="K17">
-        <v>1.003722750829298</v>
+        <v>1.035050670593483</v>
       </c>
       <c r="L17">
-        <v>0.9903769734626803</v>
+        <v>1.022746430705922</v>
       </c>
       <c r="M17">
-        <v>0.9852711801410717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.034100116173654</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664156305395851</v>
+        <v>1.0035943476335</v>
       </c>
       <c r="D18">
-        <v>0.991062908860072</v>
+        <v>1.022493275067429</v>
       </c>
       <c r="E18">
-        <v>0.9776071751244665</v>
+        <v>1.010048131828448</v>
       </c>
       <c r="F18">
-        <v>0.9728181782842147</v>
+        <v>1.021721681690946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029262786471772</v>
+        <v>1.044632721187144</v>
       </c>
       <c r="J18">
-        <v>0.9948103372340437</v>
+        <v>1.030522249202936</v>
       </c>
       <c r="K18">
-        <v>1.005037712176207</v>
+        <v>1.035934721047859</v>
       </c>
       <c r="L18">
-        <v>0.9918239668102393</v>
+        <v>1.0236956465687</v>
       </c>
       <c r="M18">
-        <v>0.9871232018603049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.035175716236979</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671005242895361</v>
+        <v>1.004076614464295</v>
       </c>
       <c r="D19">
-        <v>0.9915826675977997</v>
+        <v>1.02286176770229</v>
       </c>
       <c r="E19">
-        <v>0.978174237621336</v>
+        <v>1.010440487389591</v>
       </c>
       <c r="F19">
-        <v>0.973525575158643</v>
+        <v>1.022156423276988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029490125637207</v>
+        <v>1.044801271746705</v>
       </c>
       <c r="J19">
-        <v>0.9953244726937778</v>
+        <v>1.03085275975613</v>
       </c>
       <c r="K19">
-        <v>1.005482961228512</v>
+        <v>1.036234718115269</v>
       </c>
       <c r="L19">
-        <v>0.9923140243584422</v>
+        <v>1.024017815392394</v>
       </c>
       <c r="M19">
-        <v>0.9877504001322913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.035540808466858</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964019073226548</v>
+        <v>1.001910949477431</v>
       </c>
       <c r="D20">
-        <v>0.9892447325730885</v>
+        <v>1.021207448348566</v>
       </c>
       <c r="E20">
-        <v>0.9756237478703979</v>
+        <v>1.008679182439659</v>
       </c>
       <c r="F20">
-        <v>0.970343275473626</v>
+        <v>1.020204834806533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028466390838578</v>
+        <v>1.044043719546206</v>
       </c>
       <c r="J20">
-        <v>0.9930110979228427</v>
+        <v>1.029368405454764</v>
       </c>
       <c r="K20">
-        <v>1.003479374029267</v>
+        <v>1.03488736628243</v>
       </c>
       <c r="L20">
-        <v>0.9901092084671614</v>
+        <v>1.02257111658226</v>
       </c>
       <c r="M20">
-        <v>0.9849284488493695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.033901473013328</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9536580621451413</v>
+        <v>0.9947086400988254</v>
       </c>
       <c r="D21">
-        <v>0.9813945589358439</v>
+        <v>1.015713859535604</v>
       </c>
       <c r="E21">
-        <v>0.9670636586001019</v>
+        <v>1.002832834682044</v>
       </c>
       <c r="F21">
-        <v>0.9596503420316257</v>
+        <v>1.013726632219844</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025008590057582</v>
+        <v>1.041512849617036</v>
       </c>
       <c r="J21">
-        <v>0.9852297526883429</v>
+        <v>1.024429268941125</v>
       </c>
       <c r="K21">
-        <v>0.996737203473991</v>
+        <v>1.030403520612331</v>
       </c>
       <c r="L21">
-        <v>0.9826970919362101</v>
+        <v>1.017760736160645</v>
       </c>
       <c r="M21">
-        <v>0.9754387111663897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.028452533736713</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468554484532189</v>
+        <v>0.9900486438306083</v>
       </c>
       <c r="D22">
-        <v>0.9762502720878747</v>
+        <v>1.012166306558011</v>
       </c>
       <c r="E22">
-        <v>0.9614568139322258</v>
+        <v>0.9990593343565629</v>
       </c>
       <c r="F22">
-        <v>0.9526354224647646</v>
+        <v>1.009545045951921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02272689739449</v>
+        <v>1.039866802580919</v>
       </c>
       <c r="J22">
-        <v>0.9801193622388866</v>
+        <v>1.02123191206587</v>
       </c>
       <c r="K22">
-        <v>0.9923073684872422</v>
+        <v>1.027500538973923</v>
       </c>
       <c r="L22">
-        <v>0.9778325403444244</v>
+        <v>1.014649449077563</v>
       </c>
       <c r="M22">
-        <v>0.9692074305490043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.024929755833961</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9504907345337156</v>
+        <v>0.9925320009326735</v>
       </c>
       <c r="D23">
-        <v>0.9789983418706028</v>
+        <v>1.014056146383904</v>
       </c>
       <c r="E23">
-        <v>0.9644517515415595</v>
+        <v>1.001069371851052</v>
       </c>
       <c r="F23">
-        <v>0.9563836338439278</v>
+        <v>1.011772488344322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023947249384996</v>
+        <v>1.040744777233482</v>
       </c>
       <c r="J23">
-        <v>0.9828504177790747</v>
+        <v>1.02293594573662</v>
       </c>
       <c r="K23">
-        <v>0.9946748877189318</v>
+        <v>1.029047712805869</v>
       </c>
       <c r="L23">
-        <v>0.9804318903775011</v>
+        <v>1.016307352926431</v>
       </c>
       <c r="M23">
-        <v>0.9725374467674747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.026806786966587</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9641882614943316</v>
+        <v>1.002029579431907</v>
       </c>
       <c r="D24">
-        <v>0.9893730610188904</v>
+        <v>1.021298039147942</v>
       </c>
       <c r="E24">
-        <v>0.9757637287546368</v>
+        <v>1.008775622228634</v>
       </c>
       <c r="F24">
-        <v>0.9705179746073784</v>
+        <v>1.020311694244854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028522658465517</v>
+        <v>1.044085259932066</v>
       </c>
       <c r="J24">
-        <v>0.9931381271069289</v>
+        <v>1.029449725579702</v>
       </c>
       <c r="K24">
-        <v>1.003589403635088</v>
+        <v>1.034961183116485</v>
       </c>
       <c r="L24">
-        <v>0.9902302620099351</v>
+        <v>1.022650361031621</v>
       </c>
       <c r="M24">
-        <v>0.9850833944597972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.033991262004599</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9789852402746916</v>
+        <v>1.012527053172485</v>
       </c>
       <c r="D25">
-        <v>1.000612173331057</v>
+        <v>1.029327344595764</v>
       </c>
       <c r="E25">
-        <v>0.9880306191295551</v>
+        <v>1.017328021018108</v>
       </c>
       <c r="F25">
-        <v>0.9858092346818988</v>
+        <v>1.029787870063535</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033415074472282</v>
+        <v>1.047739963858435</v>
       </c>
       <c r="J25">
-        <v>1.00424113922111</v>
+        <v>1.036640063526199</v>
       </c>
       <c r="K25">
-        <v>1.013200993524346</v>
+        <v>1.041486832185588</v>
       </c>
       <c r="L25">
-        <v>1.000817630281815</v>
+        <v>1.029663167820256</v>
       </c>
       <c r="M25">
-        <v>0.9986319123445497</v>
+        <v>1.041940719321802</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020525125049179</v>
+        <v>1.052042066530208</v>
       </c>
       <c r="D2">
-        <v>1.035461410544495</v>
+        <v>1.055268628335639</v>
       </c>
       <c r="E2">
-        <v>1.023868843720976</v>
+        <v>1.048900163478012</v>
       </c>
       <c r="F2">
-        <v>1.03703512219111</v>
+        <v>1.063662236074625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050492540949944</v>
+        <v>1.045481499151993</v>
       </c>
       <c r="J2">
-        <v>1.042108797094153</v>
+        <v>1.057066755259954</v>
       </c>
       <c r="K2">
-        <v>1.046447866064311</v>
+        <v>1.058009552368777</v>
       </c>
       <c r="L2">
-        <v>1.035005368907318</v>
+        <v>1.051658720252838</v>
       </c>
       <c r="M2">
-        <v>1.048001528555689</v>
+        <v>1.066380269394519</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02613607684818</v>
+        <v>1.053202855792059</v>
       </c>
       <c r="D3">
-        <v>1.039772692272046</v>
+        <v>1.056180841177848</v>
       </c>
       <c r="E3">
-        <v>1.028470387238456</v>
+        <v>1.049895937688397</v>
       </c>
       <c r="F3">
-        <v>1.042133808527698</v>
+        <v>1.06477227772745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052404173061102</v>
+        <v>1.045816074696081</v>
       </c>
       <c r="J3">
-        <v>1.045938745052193</v>
+        <v>1.057876841161164</v>
       </c>
       <c r="K3">
-        <v>1.049920760795438</v>
+        <v>1.058734920830761</v>
       </c>
       <c r="L3">
-        <v>1.038751496327036</v>
+        <v>1.052466157880417</v>
       </c>
       <c r="M3">
-        <v>1.052254534361167</v>
+        <v>1.06730462547779</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029682109594163</v>
+        <v>1.053953946110288</v>
       </c>
       <c r="D4">
-        <v>1.042500591967042</v>
+        <v>1.056771069751885</v>
       </c>
       <c r="E4">
-        <v>1.031384049196565</v>
+        <v>1.050540534742435</v>
       </c>
       <c r="F4">
-        <v>1.04536239497095</v>
+        <v>1.065490930156557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053603025132602</v>
+        <v>1.046031356457702</v>
       </c>
       <c r="J4">
-        <v>1.0483558572877</v>
+        <v>1.058400449160515</v>
       </c>
       <c r="K4">
-        <v>1.052111767190687</v>
+        <v>1.059203617025321</v>
       </c>
       <c r="L4">
-        <v>1.04111789566938</v>
+        <v>1.052988275643255</v>
       </c>
       <c r="M4">
-        <v>1.054942508134732</v>
+        <v>1.06790253387806</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031153461676365</v>
+        <v>1.054269701245172</v>
       </c>
       <c r="D5">
-        <v>1.043633188876085</v>
+        <v>1.057019193805947</v>
       </c>
       <c r="E5">
-        <v>1.03259428887057</v>
+        <v>1.050811586922102</v>
       </c>
       <c r="F5">
-        <v>1.046703485903192</v>
+        <v>1.065793143309404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054098197427135</v>
+        <v>1.046121571142185</v>
       </c>
       <c r="J5">
-        <v>1.049357938315828</v>
+        <v>1.058620437496409</v>
       </c>
       <c r="K5">
-        <v>1.053019914953457</v>
+        <v>1.059400497801696</v>
       </c>
       <c r="L5">
-        <v>1.042099473090977</v>
+        <v>1.053207690850608</v>
       </c>
       <c r="M5">
-        <v>1.056057807777615</v>
+        <v>1.068153844224088</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03139939457632</v>
+        <v>1.054322717763011</v>
       </c>
       <c r="D6">
-        <v>1.043822539709825</v>
+        <v>1.057060854458923</v>
       </c>
       <c r="E6">
-        <v>1.032796650915895</v>
+        <v>1.050857101511107</v>
       </c>
       <c r="F6">
-        <v>1.046927730078653</v>
+        <v>1.06584389161488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054180829816738</v>
+        <v>1.046136701596776</v>
       </c>
       <c r="J6">
-        <v>1.049525382529631</v>
+        <v>1.058657366515479</v>
       </c>
       <c r="K6">
-        <v>1.053171651484428</v>
+        <v>1.059433545628235</v>
       </c>
       <c r="L6">
-        <v>1.042263521743736</v>
+        <v>1.05324452676515</v>
       </c>
       <c r="M6">
-        <v>1.056244224787839</v>
+        <v>1.068196037395194</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029701845001748</v>
+        <v>1.053958165257223</v>
       </c>
       <c r="D7">
-        <v>1.042515780883193</v>
+        <v>1.056774385229057</v>
       </c>
       <c r="E7">
-        <v>1.031400277302039</v>
+        <v>1.0505441563048</v>
       </c>
       <c r="F7">
-        <v>1.045380377483758</v>
+        <v>1.065494967982785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053609675945935</v>
+        <v>1.046032563049137</v>
       </c>
       <c r="J7">
-        <v>1.048369301724417</v>
+        <v>1.058403389191132</v>
       </c>
       <c r="K7">
-        <v>1.052123952154599</v>
+        <v>1.059206248380725</v>
       </c>
       <c r="L7">
-        <v>1.041131062964528</v>
+        <v>1.052991207806143</v>
       </c>
       <c r="M7">
-        <v>1.054957467913999</v>
+        <v>1.067905892096575</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022439430080672</v>
+        <v>1.052434365052744</v>
       </c>
       <c r="D8">
-        <v>1.036931582211523</v>
+        <v>1.055576922084551</v>
       </c>
       <c r="E8">
-        <v>1.025437561792374</v>
+        <v>1.049236635403579</v>
       </c>
       <c r="F8">
-        <v>1.038773298579011</v>
+        <v>1.064037301147378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051146659480882</v>
+        <v>1.045594821353602</v>
       </c>
       <c r="J8">
-        <v>1.043416148869257</v>
+        <v>1.057340646214249</v>
       </c>
       <c r="K8">
-        <v>1.047633492245129</v>
+        <v>1.058254832036046</v>
       </c>
       <c r="L8">
-        <v>1.036283646072757</v>
+        <v>1.051931669894106</v>
       </c>
       <c r="M8">
-        <v>1.049452476312706</v>
+        <v>1.066692703930327</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008952440514</v>
+        <v>1.049749049066064</v>
       </c>
       <c r="D9">
-        <v>1.026590356590493</v>
+        <v>1.053466571125703</v>
       </c>
       <c r="E9">
-        <v>1.014411630163191</v>
+        <v>1.046934631300531</v>
       </c>
       <c r="F9">
-        <v>1.026556508567318</v>
+        <v>1.061471607575361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046500391489325</v>
+        <v>1.044814183154003</v>
       </c>
       <c r="J9">
-        <v>1.034192978102765</v>
+        <v>1.055463559655931</v>
       </c>
       <c r="K9">
-        <v>1.039266267408065</v>
+        <v>1.056573204029831</v>
       </c>
       <c r="L9">
-        <v>1.027275137251783</v>
+        <v>1.050061946698135</v>
       </c>
       <c r="M9">
-        <v>1.039232932905262</v>
+        <v>1.0645532727909</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9994344202129991</v>
+        <v>1.047958644433357</v>
       </c>
       <c r="D10">
-        <v>1.019317038644253</v>
+        <v>1.052059478447176</v>
       </c>
       <c r="E10">
-        <v>1.006666962866766</v>
+        <v>1.045401297752923</v>
       </c>
       <c r="F10">
-        <v>1.017975187215043</v>
+        <v>1.059763067540757</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043175404227768</v>
+        <v>1.044287506706357</v>
       </c>
       <c r="J10">
-        <v>1.027670495799528</v>
+        <v>1.054209183296155</v>
       </c>
       <c r="K10">
-        <v>1.033346062430114</v>
+        <v>1.055448662871111</v>
       </c>
       <c r="L10">
-        <v>1.020916877626546</v>
+        <v>1.048813639485408</v>
       </c>
       <c r="M10">
-        <v>1.032027305315607</v>
+        <v>1.063125857977395</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9951724195769714</v>
+        <v>1.047183317225147</v>
       </c>
       <c r="D11">
-        <v>1.016067224427721</v>
+        <v>1.051450142685977</v>
       </c>
       <c r="E11">
-        <v>1.003208781279347</v>
+        <v>1.044737659174127</v>
       </c>
       <c r="F11">
-        <v>1.014143223336622</v>
+        <v>1.059023699520276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041676320507737</v>
+        <v>1.0440579645218</v>
       </c>
       <c r="J11">
-        <v>1.024747419801492</v>
+        <v>1.053665309286691</v>
       </c>
       <c r="K11">
-        <v>1.030692366818471</v>
+        <v>1.054960899367457</v>
       </c>
       <c r="L11">
-        <v>1.018070437329791</v>
+        <v>1.048272670169406</v>
       </c>
       <c r="M11">
-        <v>1.028803258670825</v>
+        <v>1.062507497647956</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9935667176662754</v>
+        <v>1.046895314133787</v>
       </c>
       <c r="D12">
-        <v>1.014844030627469</v>
+        <v>1.051223799529002</v>
       </c>
       <c r="E12">
-        <v>1.001907479412769</v>
+        <v>1.044491199536419</v>
       </c>
       <c r="F12">
-        <v>1.012701225476136</v>
+        <v>1.05874913085244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041110073430386</v>
+        <v>1.043972478499233</v>
       </c>
       <c r="J12">
-        <v>1.023645863327421</v>
+        <v>1.053463181266122</v>
       </c>
       <c r="K12">
-        <v>1.029692262965775</v>
+        <v>1.054779597089528</v>
       </c>
       <c r="L12">
-        <v>1.016998226143825</v>
+        <v>1.048071662785501</v>
       </c>
       <c r="M12">
-        <v>1.027589069506423</v>
+        <v>1.062277768311135</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9939121942850806</v>
+        <v>1.04695709234366</v>
       </c>
       <c r="D13">
-        <v>1.015107153664161</v>
+        <v>1.051272351305911</v>
       </c>
       <c r="E13">
-        <v>1.002187390264161</v>
+        <v>1.04454406392503</v>
       </c>
       <c r="F13">
-        <v>1.013011402291941</v>
+        <v>1.058808023809906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041231970255759</v>
+        <v>1.043990825675208</v>
       </c>
       <c r="J13">
-        <v>1.023882881954224</v>
+        <v>1.053506543356444</v>
       </c>
       <c r="K13">
-        <v>1.029907454891041</v>
+        <v>1.054818492717484</v>
       </c>
       <c r="L13">
-        <v>1.01722890947194</v>
+        <v>1.04811478260615</v>
       </c>
       <c r="M13">
-        <v>1.027850287248586</v>
+        <v>1.06232704798022</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.995040161906717</v>
+        <v>1.047159511054152</v>
       </c>
       <c r="D14">
-        <v>1.015966448609452</v>
+        <v>1.051431433270365</v>
       </c>
       <c r="E14">
-        <v>1.003101563956529</v>
+        <v>1.044717285823032</v>
       </c>
       <c r="F14">
-        <v>1.014024414693981</v>
+        <v>1.05900100225588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041629709605113</v>
+        <v>1.044050902788451</v>
       </c>
       <c r="J14">
-        <v>1.024656692840067</v>
+        <v>1.053648603549078</v>
       </c>
       <c r="K14">
-        <v>1.030609996926121</v>
+        <v>1.054945915421627</v>
       </c>
       <c r="L14">
-        <v>1.017982117819015</v>
+        <v>1.048256056212459</v>
       </c>
       <c r="M14">
-        <v>1.02870323894824</v>
+        <v>1.062488509025823</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9957320981611308</v>
+        <v>1.047284226261454</v>
       </c>
       <c r="D15">
-        <v>1.016493728605052</v>
+        <v>1.05152944775067</v>
       </c>
       <c r="E15">
-        <v>1.003662560134396</v>
+        <v>1.044824019535208</v>
       </c>
       <c r="F15">
-        <v>1.014646058622548</v>
+        <v>1.059119911307668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041873505755468</v>
+        <v>1.044087888611214</v>
       </c>
       <c r="J15">
-        <v>1.025131340230751</v>
+        <v>1.053736117057876</v>
       </c>
       <c r="K15">
-        <v>1.031040920995547</v>
+        <v>1.055024408149639</v>
       </c>
       <c r="L15">
-        <v>1.018444189381601</v>
+        <v>1.048343090609587</v>
       </c>
       <c r="M15">
-        <v>1.029226534494044</v>
+        <v>1.062587984816467</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9997141891356689</v>
+        <v>1.048010098739864</v>
       </c>
       <c r="D16">
-        <v>1.019530520558154</v>
+        <v>1.052099916853851</v>
       </c>
       <c r="E16">
-        <v>1.006894177673116</v>
+        <v>1.045445347639079</v>
       </c>
       <c r="F16">
-        <v>1.018226955638728</v>
+        <v>1.059812146191881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043273601087488</v>
+        <v>1.044302709292409</v>
       </c>
       <c r="J16">
-        <v>1.027862329749702</v>
+        <v>1.054245263176581</v>
       </c>
       <c r="K16">
-        <v>1.033520207985597</v>
+        <v>1.055481016600854</v>
       </c>
       <c r="L16">
-        <v>1.021103746034992</v>
+        <v>1.048849532432126</v>
       </c>
       <c r="M16">
-        <v>1.032238999629994</v>
+        <v>1.063166890553526</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002173396382587</v>
+        <v>1.048465399518386</v>
       </c>
       <c r="D17">
-        <v>1.021407868297057</v>
+        <v>1.052457741944658</v>
       </c>
       <c r="E17">
-        <v>1.008892543955177</v>
+        <v>1.045835171611753</v>
       </c>
       <c r="F17">
-        <v>1.020441248433046</v>
+        <v>1.060246484421029</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044135613321536</v>
+        <v>1.044437062083937</v>
       </c>
       <c r="J17">
-        <v>1.029548309620671</v>
+        <v>1.05456444361427</v>
       </c>
       <c r="K17">
-        <v>1.035050670593483</v>
+        <v>1.055767212492498</v>
       </c>
       <c r="L17">
-        <v>1.022746430705922</v>
+        <v>1.049167090712891</v>
       </c>
       <c r="M17">
-        <v>1.034100116173654</v>
+        <v>1.06352994731451</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.0035943476335</v>
+        <v>1.048730962087931</v>
       </c>
       <c r="D18">
-        <v>1.022493275067429</v>
+        <v>1.052666449953691</v>
       </c>
       <c r="E18">
-        <v>1.010048131828448</v>
+        <v>1.046062578800715</v>
       </c>
       <c r="F18">
-        <v>1.021721681690946</v>
+        <v>1.060499869169618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044632721187144</v>
+        <v>1.044515284262995</v>
       </c>
       <c r="J18">
-        <v>1.030522249202936</v>
+        <v>1.054750546667459</v>
       </c>
       <c r="K18">
-        <v>1.035934721047859</v>
+        <v>1.055934065689893</v>
       </c>
       <c r="L18">
-        <v>1.0236956465687</v>
+        <v>1.049352274279382</v>
       </c>
       <c r="M18">
-        <v>1.035175716236979</v>
+        <v>1.063741685181042</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004076614464295</v>
+        <v>1.048821510975428</v>
       </c>
       <c r="D19">
-        <v>1.02286176770229</v>
+        <v>1.052737613102604</v>
       </c>
       <c r="E19">
-        <v>1.010440487389591</v>
+        <v>1.04614012378888</v>
       </c>
       <c r="F19">
-        <v>1.022156423276988</v>
+        <v>1.060586274070177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044801271746705</v>
+        <v>1.044541931668639</v>
       </c>
       <c r="J19">
-        <v>1.03085275975613</v>
+        <v>1.054813991233132</v>
       </c>
       <c r="K19">
-        <v>1.036234718115269</v>
+        <v>1.055990944761047</v>
       </c>
       <c r="L19">
-        <v>1.024017815392394</v>
+        <v>1.04941540984694</v>
       </c>
       <c r="M19">
-        <v>1.035540808466858</v>
+        <v>1.063813877762384</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001910949477431</v>
+        <v>1.04841655075445</v>
       </c>
       <c r="D20">
-        <v>1.021207448348566</v>
+        <v>1.052419351251151</v>
       </c>
       <c r="E20">
-        <v>1.008679182439659</v>
+        <v>1.04579334414519</v>
       </c>
       <c r="F20">
-        <v>1.020204834806533</v>
+        <v>1.060199879637562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044043719546206</v>
+        <v>1.044422662149165</v>
       </c>
       <c r="J20">
-        <v>1.029368405454764</v>
+        <v>1.054530205767276</v>
       </c>
       <c r="K20">
-        <v>1.03488736628243</v>
+        <v>1.055736514662843</v>
       </c>
       <c r="L20">
-        <v>1.02257111658226</v>
+        <v>1.049133024146375</v>
       </c>
       <c r="M20">
-        <v>1.033901473013328</v>
+        <v>1.063490997557358</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9947086400988254</v>
+        <v>1.047099904133601</v>
       </c>
       <c r="D21">
-        <v>1.015713859535604</v>
+        <v>1.051384587840984</v>
       </c>
       <c r="E21">
-        <v>1.002832834682044</v>
+        <v>1.044666275045923</v>
       </c>
       <c r="F21">
-        <v>1.013726632219844</v>
+        <v>1.058944173110197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041512849617036</v>
+        <v>1.044033217757394</v>
       </c>
       <c r="J21">
-        <v>1.024429268941125</v>
+        <v>1.053606773377672</v>
       </c>
       <c r="K21">
-        <v>1.030403520612331</v>
+        <v>1.054908396071458</v>
       </c>
       <c r="L21">
-        <v>1.017760736160645</v>
+        <v>1.04821445651883</v>
       </c>
       <c r="M21">
-        <v>1.028452533736713</v>
+        <v>1.06244096395844</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9900486438306083</v>
+        <v>1.046272005716384</v>
       </c>
       <c r="D22">
-        <v>1.012166306558011</v>
+        <v>1.050733940333858</v>
       </c>
       <c r="E22">
-        <v>0.9990593343565629</v>
+        <v>1.043957903672615</v>
       </c>
       <c r="F22">
-        <v>1.009545045951921</v>
+        <v>1.058155039381531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039866802580919</v>
+        <v>1.043787063419849</v>
       </c>
       <c r="J22">
-        <v>1.02123191206587</v>
+        <v>1.053025543806108</v>
       </c>
       <c r="K22">
-        <v>1.027500538973923</v>
+        <v>1.054387000441574</v>
       </c>
       <c r="L22">
-        <v>1.014649449077563</v>
+        <v>1.04763652696841</v>
       </c>
       <c r="M22">
-        <v>1.024929755833961</v>
+        <v>1.061780518328757</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925320009326735</v>
+        <v>1.046710897508291</v>
       </c>
       <c r="D23">
-        <v>1.014056146383904</v>
+        <v>1.051078865829261</v>
       </c>
       <c r="E23">
-        <v>1.001069371851052</v>
+        <v>1.044333400114326</v>
       </c>
       <c r="F23">
-        <v>1.011772488344322</v>
+        <v>1.058573338440847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040744777233482</v>
+        <v>1.043917677363587</v>
       </c>
       <c r="J23">
-        <v>1.02293594573662</v>
+        <v>1.053333724645841</v>
       </c>
       <c r="K23">
-        <v>1.029047712805869</v>
+        <v>1.0546634709922</v>
       </c>
       <c r="L23">
-        <v>1.016307352926431</v>
+        <v>1.047942935483397</v>
       </c>
       <c r="M23">
-        <v>1.026806786966587</v>
+        <v>1.062130656767331</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002029579431907</v>
+        <v>1.048438623428382</v>
       </c>
       <c r="D24">
-        <v>1.021298039147942</v>
+        <v>1.052436698369246</v>
       </c>
       <c r="E24">
-        <v>1.008775622228634</v>
+        <v>1.045812244085623</v>
       </c>
       <c r="F24">
-        <v>1.020311694244854</v>
+        <v>1.060220938201198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044085259932066</v>
+        <v>1.044429169303208</v>
       </c>
       <c r="J24">
-        <v>1.029449725579702</v>
+        <v>1.054545676591053</v>
       </c>
       <c r="K24">
-        <v>1.034961183116485</v>
+        <v>1.055750385937734</v>
       </c>
       <c r="L24">
-        <v>1.022650361031621</v>
+        <v>1.049148417493436</v>
       </c>
       <c r="M24">
-        <v>1.033991262004599</v>
+        <v>1.063508597359207</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012527053172485</v>
+        <v>1.050443296726022</v>
       </c>
       <c r="D25">
-        <v>1.029327344595764</v>
+        <v>1.054012180401446</v>
       </c>
       <c r="E25">
-        <v>1.017328021018108</v>
+        <v>1.04752951770538</v>
       </c>
       <c r="F25">
-        <v>1.029787870063535</v>
+        <v>1.062134559941985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047739963858435</v>
+        <v>1.045017097837978</v>
       </c>
       <c r="J25">
-        <v>1.036640063526199</v>
+        <v>1.055949355611566</v>
       </c>
       <c r="K25">
-        <v>1.041486832185588</v>
+        <v>1.057008552853121</v>
       </c>
       <c r="L25">
-        <v>1.029663167820256</v>
+        <v>1.050545635040737</v>
       </c>
       <c r="M25">
-        <v>1.041940719321802</v>
+        <v>1.065106563847094</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052042066530208</v>
+        <v>1.020525125049178</v>
       </c>
       <c r="D2">
-        <v>1.055268628335639</v>
+        <v>1.035461410544494</v>
       </c>
       <c r="E2">
-        <v>1.048900163478012</v>
+        <v>1.023868843720976</v>
       </c>
       <c r="F2">
-        <v>1.063662236074625</v>
+        <v>1.03703512219111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045481499151993</v>
+        <v>1.050492540949944</v>
       </c>
       <c r="J2">
-        <v>1.057066755259954</v>
+        <v>1.042108797094152</v>
       </c>
       <c r="K2">
-        <v>1.058009552368777</v>
+        <v>1.046447866064311</v>
       </c>
       <c r="L2">
-        <v>1.051658720252838</v>
+        <v>1.035005368907317</v>
       </c>
       <c r="M2">
-        <v>1.066380269394519</v>
+        <v>1.048001528555688</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053202855792059</v>
+        <v>1.026136076848179</v>
       </c>
       <c r="D3">
-        <v>1.056180841177848</v>
+        <v>1.039772692272045</v>
       </c>
       <c r="E3">
-        <v>1.049895937688397</v>
+        <v>1.028470387238455</v>
       </c>
       <c r="F3">
-        <v>1.06477227772745</v>
+        <v>1.042133808527697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045816074696081</v>
+        <v>1.052404173061102</v>
       </c>
       <c r="J3">
-        <v>1.057876841161164</v>
+        <v>1.045938745052192</v>
       </c>
       <c r="K3">
-        <v>1.058734920830761</v>
+        <v>1.049920760795436</v>
       </c>
       <c r="L3">
-        <v>1.052466157880417</v>
+        <v>1.038751496327035</v>
       </c>
       <c r="M3">
-        <v>1.06730462547779</v>
+        <v>1.052254534361166</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053953946110288</v>
+        <v>1.029682109594163</v>
       </c>
       <c r="D4">
-        <v>1.056771069751885</v>
+        <v>1.042500591967043</v>
       </c>
       <c r="E4">
-        <v>1.050540534742435</v>
+        <v>1.031384049196565</v>
       </c>
       <c r="F4">
-        <v>1.065490930156557</v>
+        <v>1.04536239497095</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046031356457702</v>
+        <v>1.053603025132602</v>
       </c>
       <c r="J4">
-        <v>1.058400449160515</v>
+        <v>1.048355857287701</v>
       </c>
       <c r="K4">
-        <v>1.059203617025321</v>
+        <v>1.052111767190687</v>
       </c>
       <c r="L4">
-        <v>1.052988275643255</v>
+        <v>1.04111789566938</v>
       </c>
       <c r="M4">
-        <v>1.06790253387806</v>
+        <v>1.054942508134732</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054269701245172</v>
+        <v>1.031153461676364</v>
       </c>
       <c r="D5">
-        <v>1.057019193805947</v>
+        <v>1.043633188876084</v>
       </c>
       <c r="E5">
-        <v>1.050811586922102</v>
+        <v>1.032594288870569</v>
       </c>
       <c r="F5">
-        <v>1.065793143309404</v>
+        <v>1.046703485903191</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046121571142185</v>
+        <v>1.054098197427134</v>
       </c>
       <c r="J5">
-        <v>1.058620437496409</v>
+        <v>1.049357938315827</v>
       </c>
       <c r="K5">
-        <v>1.059400497801696</v>
+        <v>1.053019914953456</v>
       </c>
       <c r="L5">
-        <v>1.053207690850608</v>
+        <v>1.042099473090976</v>
       </c>
       <c r="M5">
-        <v>1.068153844224088</v>
+        <v>1.056057807777614</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054322717763011</v>
+        <v>1.031399394576321</v>
       </c>
       <c r="D6">
-        <v>1.057060854458923</v>
+        <v>1.043822539709825</v>
       </c>
       <c r="E6">
-        <v>1.050857101511107</v>
+        <v>1.032796650915895</v>
       </c>
       <c r="F6">
-        <v>1.06584389161488</v>
+        <v>1.046927730078653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046136701596776</v>
+        <v>1.054180829816739</v>
       </c>
       <c r="J6">
-        <v>1.058657366515479</v>
+        <v>1.049525382529632</v>
       </c>
       <c r="K6">
-        <v>1.059433545628235</v>
+        <v>1.053171651484429</v>
       </c>
       <c r="L6">
-        <v>1.05324452676515</v>
+        <v>1.042263521743737</v>
       </c>
       <c r="M6">
-        <v>1.068196037395194</v>
+        <v>1.056244224787839</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053958165257223</v>
+        <v>1.029701845001746</v>
       </c>
       <c r="D7">
-        <v>1.056774385229057</v>
+        <v>1.042515780883192</v>
       </c>
       <c r="E7">
-        <v>1.0505441563048</v>
+        <v>1.031400277302038</v>
       </c>
       <c r="F7">
-        <v>1.065494967982785</v>
+        <v>1.045380377483756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046032563049137</v>
+        <v>1.053609675945934</v>
       </c>
       <c r="J7">
-        <v>1.058403389191132</v>
+        <v>1.048369301724416</v>
       </c>
       <c r="K7">
-        <v>1.059206248380725</v>
+        <v>1.052123952154598</v>
       </c>
       <c r="L7">
-        <v>1.052991207806143</v>
+        <v>1.041131062964526</v>
       </c>
       <c r="M7">
-        <v>1.067905892096575</v>
+        <v>1.054957467913998</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052434365052744</v>
+        <v>1.022439430080671</v>
       </c>
       <c r="D8">
-        <v>1.055576922084551</v>
+        <v>1.036931582211522</v>
       </c>
       <c r="E8">
-        <v>1.049236635403579</v>
+        <v>1.025437561792373</v>
       </c>
       <c r="F8">
-        <v>1.064037301147378</v>
+        <v>1.03877329857901</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045594821353602</v>
+        <v>1.051146659480882</v>
       </c>
       <c r="J8">
-        <v>1.057340646214249</v>
+        <v>1.043416148869257</v>
       </c>
       <c r="K8">
-        <v>1.058254832036046</v>
+        <v>1.047633492245129</v>
       </c>
       <c r="L8">
-        <v>1.051931669894106</v>
+        <v>1.036283646072756</v>
       </c>
       <c r="M8">
-        <v>1.066692703930327</v>
+        <v>1.049452476312705</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049749049066064</v>
+        <v>1.008952440514</v>
       </c>
       <c r="D9">
-        <v>1.053466571125703</v>
+        <v>1.026590356590494</v>
       </c>
       <c r="E9">
-        <v>1.046934631300531</v>
+        <v>1.014411630163192</v>
       </c>
       <c r="F9">
-        <v>1.061471607575361</v>
+        <v>1.026556508567319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044814183154003</v>
+        <v>1.046500391489325</v>
       </c>
       <c r="J9">
-        <v>1.055463559655931</v>
+        <v>1.034192978102766</v>
       </c>
       <c r="K9">
-        <v>1.056573204029831</v>
+        <v>1.039266267408066</v>
       </c>
       <c r="L9">
-        <v>1.050061946698135</v>
+        <v>1.027275137251784</v>
       </c>
       <c r="M9">
-        <v>1.0645532727909</v>
+        <v>1.039232932905263</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047958644433357</v>
+        <v>0.999434420213</v>
       </c>
       <c r="D10">
-        <v>1.052059478447176</v>
+        <v>1.019317038644253</v>
       </c>
       <c r="E10">
-        <v>1.045401297752923</v>
+        <v>1.006666962866767</v>
       </c>
       <c r="F10">
-        <v>1.059763067540757</v>
+        <v>1.017975187215044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044287506706357</v>
+        <v>1.043175404227769</v>
       </c>
       <c r="J10">
-        <v>1.054209183296155</v>
+        <v>1.027670495799529</v>
       </c>
       <c r="K10">
-        <v>1.055448662871111</v>
+        <v>1.033346062430115</v>
       </c>
       <c r="L10">
-        <v>1.048813639485408</v>
+        <v>1.020916877626546</v>
       </c>
       <c r="M10">
-        <v>1.063125857977395</v>
+        <v>1.032027305315607</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047183317225147</v>
+        <v>0.9951724195769726</v>
       </c>
       <c r="D11">
-        <v>1.051450142685977</v>
+        <v>1.016067224427722</v>
       </c>
       <c r="E11">
-        <v>1.044737659174127</v>
+        <v>1.003208781279348</v>
       </c>
       <c r="F11">
-        <v>1.059023699520276</v>
+        <v>1.014143223336623</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0440579645218</v>
+        <v>1.041676320507737</v>
       </c>
       <c r="J11">
-        <v>1.053665309286691</v>
+        <v>1.024747419801493</v>
       </c>
       <c r="K11">
-        <v>1.054960899367457</v>
+        <v>1.030692366818472</v>
       </c>
       <c r="L11">
-        <v>1.048272670169406</v>
+        <v>1.018070437329792</v>
       </c>
       <c r="M11">
-        <v>1.062507497647956</v>
+        <v>1.028803258670826</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046895314133787</v>
+        <v>0.9935667176662765</v>
       </c>
       <c r="D12">
-        <v>1.051223799529002</v>
+        <v>1.01484403062747</v>
       </c>
       <c r="E12">
-        <v>1.044491199536419</v>
+        <v>1.00190747941277</v>
       </c>
       <c r="F12">
-        <v>1.05874913085244</v>
+        <v>1.012701225476136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043972478499233</v>
+        <v>1.041110073430387</v>
       </c>
       <c r="J12">
-        <v>1.053463181266122</v>
+        <v>1.023645863327422</v>
       </c>
       <c r="K12">
-        <v>1.054779597089528</v>
+        <v>1.029692262965776</v>
       </c>
       <c r="L12">
-        <v>1.048071662785501</v>
+        <v>1.016998226143826</v>
       </c>
       <c r="M12">
-        <v>1.062277768311135</v>
+        <v>1.027589069506423</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04695709234366</v>
+        <v>0.9939121942850799</v>
       </c>
       <c r="D13">
-        <v>1.051272351305911</v>
+        <v>1.015107153664161</v>
       </c>
       <c r="E13">
-        <v>1.04454406392503</v>
+        <v>1.00218739026416</v>
       </c>
       <c r="F13">
-        <v>1.058808023809906</v>
+        <v>1.01301140229194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043990825675208</v>
+        <v>1.041231970255759</v>
       </c>
       <c r="J13">
-        <v>1.053506543356444</v>
+        <v>1.023882881954223</v>
       </c>
       <c r="K13">
-        <v>1.054818492717484</v>
+        <v>1.029907454891041</v>
       </c>
       <c r="L13">
-        <v>1.04811478260615</v>
+        <v>1.017228909471939</v>
       </c>
       <c r="M13">
-        <v>1.06232704798022</v>
+        <v>1.027850287248586</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047159511054152</v>
+        <v>0.995040161906716</v>
       </c>
       <c r="D14">
-        <v>1.051431433270365</v>
+        <v>1.015966448609451</v>
       </c>
       <c r="E14">
-        <v>1.044717285823032</v>
+        <v>1.003101563956528</v>
       </c>
       <c r="F14">
-        <v>1.05900100225588</v>
+        <v>1.01402441469398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044050902788451</v>
+        <v>1.041629709605113</v>
       </c>
       <c r="J14">
-        <v>1.053648603549078</v>
+        <v>1.024656692840066</v>
       </c>
       <c r="K14">
-        <v>1.054945915421627</v>
+        <v>1.03060999692612</v>
       </c>
       <c r="L14">
-        <v>1.048256056212459</v>
+        <v>1.017982117819014</v>
       </c>
       <c r="M14">
-        <v>1.062488509025823</v>
+        <v>1.028703238948239</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047284226261454</v>
+        <v>0.9957320981611302</v>
       </c>
       <c r="D15">
-        <v>1.05152944775067</v>
+        <v>1.016493728605051</v>
       </c>
       <c r="E15">
-        <v>1.044824019535208</v>
+        <v>1.003662560134395</v>
       </c>
       <c r="F15">
-        <v>1.059119911307668</v>
+        <v>1.014646058622547</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044087888611214</v>
+        <v>1.041873505755468</v>
       </c>
       <c r="J15">
-        <v>1.053736117057876</v>
+        <v>1.025131340230751</v>
       </c>
       <c r="K15">
-        <v>1.055024408149639</v>
+        <v>1.031040920995546</v>
       </c>
       <c r="L15">
-        <v>1.048343090609587</v>
+        <v>1.0184441893816</v>
       </c>
       <c r="M15">
-        <v>1.062587984816467</v>
+        <v>1.029226534494043</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048010098739864</v>
+        <v>0.99971418913567</v>
       </c>
       <c r="D16">
-        <v>1.052099916853851</v>
+        <v>1.019530520558155</v>
       </c>
       <c r="E16">
-        <v>1.045445347639079</v>
+        <v>1.006894177673116</v>
       </c>
       <c r="F16">
-        <v>1.059812146191881</v>
+        <v>1.018226955638729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044302709292409</v>
+        <v>1.043273601087488</v>
       </c>
       <c r="J16">
-        <v>1.054245263176581</v>
+        <v>1.027862329749702</v>
       </c>
       <c r="K16">
-        <v>1.055481016600854</v>
+        <v>1.033520207985598</v>
       </c>
       <c r="L16">
-        <v>1.048849532432126</v>
+        <v>1.021103746034993</v>
       </c>
       <c r="M16">
-        <v>1.063166890553526</v>
+        <v>1.032238999629995</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048465399518386</v>
+        <v>1.002173396382585</v>
       </c>
       <c r="D17">
-        <v>1.052457741944658</v>
+        <v>1.021407868297056</v>
       </c>
       <c r="E17">
-        <v>1.045835171611753</v>
+        <v>1.008892543955175</v>
       </c>
       <c r="F17">
-        <v>1.060246484421029</v>
+        <v>1.020441248433044</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044437062083937</v>
+        <v>1.044135613321536</v>
       </c>
       <c r="J17">
-        <v>1.05456444361427</v>
+        <v>1.029548309620669</v>
       </c>
       <c r="K17">
-        <v>1.055767212492498</v>
+        <v>1.035050670593481</v>
       </c>
       <c r="L17">
-        <v>1.049167090712891</v>
+        <v>1.02274643070592</v>
       </c>
       <c r="M17">
-        <v>1.06352994731451</v>
+        <v>1.034100116173652</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048730962087931</v>
+        <v>1.003594347633501</v>
       </c>
       <c r="D18">
-        <v>1.052666449953691</v>
+        <v>1.02249327506743</v>
       </c>
       <c r="E18">
-        <v>1.046062578800715</v>
+        <v>1.010048131828449</v>
       </c>
       <c r="F18">
-        <v>1.060499869169618</v>
+        <v>1.021721681690948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044515284262995</v>
+        <v>1.044632721187145</v>
       </c>
       <c r="J18">
-        <v>1.054750546667459</v>
+        <v>1.030522249202937</v>
       </c>
       <c r="K18">
-        <v>1.055934065689893</v>
+        <v>1.03593472104786</v>
       </c>
       <c r="L18">
-        <v>1.049352274279382</v>
+        <v>1.023695646568701</v>
       </c>
       <c r="M18">
-        <v>1.063741685181042</v>
+        <v>1.03517571623698</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048821510975428</v>
+        <v>1.004076614464295</v>
       </c>
       <c r="D19">
-        <v>1.052737613102604</v>
+        <v>1.02286176770229</v>
       </c>
       <c r="E19">
-        <v>1.04614012378888</v>
+        <v>1.01044048738959</v>
       </c>
       <c r="F19">
-        <v>1.060586274070177</v>
+        <v>1.022156423276988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044541931668639</v>
+        <v>1.044801271746705</v>
       </c>
       <c r="J19">
-        <v>1.054813991233132</v>
+        <v>1.03085275975613</v>
       </c>
       <c r="K19">
-        <v>1.055990944761047</v>
+        <v>1.036234718115268</v>
       </c>
       <c r="L19">
-        <v>1.04941540984694</v>
+        <v>1.024017815392394</v>
       </c>
       <c r="M19">
-        <v>1.063813877762384</v>
+        <v>1.035540808466858</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04841655075445</v>
+        <v>1.00191094947743</v>
       </c>
       <c r="D20">
-        <v>1.052419351251151</v>
+        <v>1.021207448348566</v>
       </c>
       <c r="E20">
-        <v>1.04579334414519</v>
+        <v>1.008679182439658</v>
       </c>
       <c r="F20">
-        <v>1.060199879637562</v>
+        <v>1.020204834806533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044422662149165</v>
+        <v>1.044043719546206</v>
       </c>
       <c r="J20">
-        <v>1.054530205767276</v>
+        <v>1.029368405454764</v>
       </c>
       <c r="K20">
-        <v>1.055736514662843</v>
+        <v>1.03488736628243</v>
       </c>
       <c r="L20">
-        <v>1.049133024146375</v>
+        <v>1.02257111658226</v>
       </c>
       <c r="M20">
-        <v>1.063490997557358</v>
+        <v>1.033901473013328</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047099904133601</v>
+        <v>0.9947086400988248</v>
       </c>
       <c r="D21">
-        <v>1.051384587840984</v>
+        <v>1.015713859535604</v>
       </c>
       <c r="E21">
-        <v>1.044666275045923</v>
+        <v>1.002832834682044</v>
       </c>
       <c r="F21">
-        <v>1.058944173110197</v>
+        <v>1.013726632219844</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044033217757394</v>
+        <v>1.041512849617036</v>
       </c>
       <c r="J21">
-        <v>1.053606773377672</v>
+        <v>1.024429268941125</v>
       </c>
       <c r="K21">
-        <v>1.054908396071458</v>
+        <v>1.030403520612331</v>
       </c>
       <c r="L21">
-        <v>1.04821445651883</v>
+        <v>1.017760736160644</v>
       </c>
       <c r="M21">
-        <v>1.06244096395844</v>
+        <v>1.028452533736713</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046272005716384</v>
+        <v>0.9900486438306091</v>
       </c>
       <c r="D22">
-        <v>1.050733940333858</v>
+        <v>1.012166306558012</v>
       </c>
       <c r="E22">
-        <v>1.043957903672615</v>
+        <v>0.9990593343565634</v>
       </c>
       <c r="F22">
-        <v>1.058155039381531</v>
+        <v>1.009545045951922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043787063419849</v>
+        <v>1.03986680258092</v>
       </c>
       <c r="J22">
-        <v>1.053025543806108</v>
+        <v>1.021231912065871</v>
       </c>
       <c r="K22">
-        <v>1.054387000441574</v>
+        <v>1.027500538973924</v>
       </c>
       <c r="L22">
-        <v>1.04763652696841</v>
+        <v>1.014649449077563</v>
       </c>
       <c r="M22">
-        <v>1.061780518328757</v>
+        <v>1.024929755833962</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046710897508291</v>
+        <v>0.9925320009326737</v>
       </c>
       <c r="D23">
-        <v>1.051078865829261</v>
+        <v>1.014056146383904</v>
       </c>
       <c r="E23">
-        <v>1.044333400114326</v>
+        <v>1.001069371851052</v>
       </c>
       <c r="F23">
-        <v>1.058573338440847</v>
+        <v>1.011772488344323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043917677363587</v>
+        <v>1.040744777233482</v>
       </c>
       <c r="J23">
-        <v>1.053333724645841</v>
+        <v>1.022935945736621</v>
       </c>
       <c r="K23">
-        <v>1.0546634709922</v>
+        <v>1.029047712805869</v>
       </c>
       <c r="L23">
-        <v>1.047942935483397</v>
+        <v>1.016307352926431</v>
       </c>
       <c r="M23">
-        <v>1.062130656767331</v>
+        <v>1.026806786966587</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048438623428382</v>
+        <v>1.002029579431906</v>
       </c>
       <c r="D24">
-        <v>1.052436698369246</v>
+        <v>1.021298039147941</v>
       </c>
       <c r="E24">
-        <v>1.045812244085623</v>
+        <v>1.008775622228632</v>
       </c>
       <c r="F24">
-        <v>1.060220938201198</v>
+        <v>1.020311694244853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044429169303208</v>
+        <v>1.044085259932065</v>
       </c>
       <c r="J24">
-        <v>1.054545676591053</v>
+        <v>1.0294497255797</v>
       </c>
       <c r="K24">
-        <v>1.055750385937734</v>
+        <v>1.034961183116484</v>
       </c>
       <c r="L24">
-        <v>1.049148417493436</v>
+        <v>1.02265036103162</v>
       </c>
       <c r="M24">
-        <v>1.063508597359207</v>
+        <v>1.033991262004599</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050443296726022</v>
+        <v>1.012527053172485</v>
       </c>
       <c r="D25">
-        <v>1.054012180401446</v>
+        <v>1.029327344595764</v>
       </c>
       <c r="E25">
-        <v>1.04752951770538</v>
+        <v>1.017328021018108</v>
       </c>
       <c r="F25">
-        <v>1.062134559941985</v>
+        <v>1.029787870063535</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045017097837978</v>
+        <v>1.047739963858435</v>
       </c>
       <c r="J25">
-        <v>1.055949355611566</v>
+        <v>1.036640063526199</v>
       </c>
       <c r="K25">
-        <v>1.057008552853121</v>
+        <v>1.041486832185587</v>
       </c>
       <c r="L25">
-        <v>1.050545635040737</v>
+        <v>1.029663167820256</v>
       </c>
       <c r="M25">
-        <v>1.065106563847094</v>
+        <v>1.041940719321802</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020525125049178</v>
+        <v>1.017721889860573</v>
       </c>
       <c r="D2">
-        <v>1.035461410544494</v>
+        <v>1.032169632037701</v>
       </c>
       <c r="E2">
-        <v>1.023868843720976</v>
+        <v>1.021469302524346</v>
       </c>
       <c r="F2">
-        <v>1.03703512219111</v>
+        <v>1.032518416407984</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050492540949944</v>
+        <v>1.049631600769997</v>
       </c>
       <c r="J2">
-        <v>1.042108797094152</v>
+        <v>1.039385160818721</v>
       </c>
       <c r="K2">
-        <v>1.046447866064311</v>
+        <v>1.043198272152525</v>
       </c>
       <c r="L2">
-        <v>1.035005368907317</v>
+        <v>1.032637424173628</v>
       </c>
       <c r="M2">
-        <v>1.048001528555688</v>
+        <v>1.043542570873071</v>
       </c>
       <c r="N2">
         <v>1.005712725503999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04303341028505</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041615202383298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026136076848179</v>
+        <v>1.022164629352276</v>
       </c>
       <c r="D3">
-        <v>1.039772692272045</v>
+        <v>1.03515669127276</v>
       </c>
       <c r="E3">
-        <v>1.028470387238455</v>
+        <v>1.025058262819032</v>
       </c>
       <c r="F3">
-        <v>1.042133808527697</v>
+        <v>1.035565712094499</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052404173061102</v>
+        <v>1.050904945118584</v>
       </c>
       <c r="J3">
-        <v>1.045938745052192</v>
+        <v>1.042068774747332</v>
       </c>
       <c r="K3">
-        <v>1.049920760795436</v>
+        <v>1.045358660823247</v>
       </c>
       <c r="L3">
-        <v>1.038751496327035</v>
+        <v>1.035380251724178</v>
       </c>
       <c r="M3">
-        <v>1.052254534361166</v>
+        <v>1.04576288150002</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044790629013227</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043140120977097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029682109594163</v>
+        <v>1.024982717923625</v>
       </c>
       <c r="D4">
-        <v>1.042500591967043</v>
+        <v>1.037055426338374</v>
       </c>
       <c r="E4">
-        <v>1.031384049196565</v>
+        <v>1.027340055310879</v>
       </c>
       <c r="F4">
-        <v>1.04536239497095</v>
+        <v>1.037507019772457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053603025132602</v>
+        <v>1.051704418024314</v>
       </c>
       <c r="J4">
-        <v>1.048355857287701</v>
+        <v>1.04376825556448</v>
       </c>
       <c r="K4">
-        <v>1.052111767190687</v>
+        <v>1.046726285202704</v>
       </c>
       <c r="L4">
-        <v>1.04111789566938</v>
+        <v>1.037119338566168</v>
       </c>
       <c r="M4">
-        <v>1.054942508134732</v>
+        <v>1.047172899514639</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04590655629242</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044108031767476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031153461676364</v>
+        <v>1.026159723919994</v>
       </c>
       <c r="D5">
-        <v>1.043633188876084</v>
+        <v>1.037851872334759</v>
       </c>
       <c r="E5">
-        <v>1.032594288870569</v>
+        <v>1.028295095407349</v>
       </c>
       <c r="F5">
-        <v>1.046703485903191</v>
+        <v>1.038318690217825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054098197427134</v>
+        <v>1.052038449790945</v>
       </c>
       <c r="J5">
-        <v>1.049357938315827</v>
+        <v>1.044479376571013</v>
       </c>
       <c r="K5">
-        <v>1.053019914953456</v>
+        <v>1.047300252477163</v>
       </c>
       <c r="L5">
-        <v>1.042099473090976</v>
+        <v>1.037847259240512</v>
       </c>
       <c r="M5">
-        <v>1.056057807777614</v>
+        <v>1.047762060828348</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046372834359005</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044520998391783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031399394576321</v>
+        <v>1.026363153369693</v>
       </c>
       <c r="D6">
-        <v>1.043822539709825</v>
+        <v>1.037992614365596</v>
       </c>
       <c r="E6">
-        <v>1.032796650915895</v>
+        <v>1.028461201036815</v>
       </c>
       <c r="F6">
-        <v>1.046927730078653</v>
+        <v>1.038457760466353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054180829816739</v>
+        <v>1.052098664571385</v>
       </c>
       <c r="J6">
-        <v>1.049525382529632</v>
+        <v>1.044604689398761</v>
       </c>
       <c r="K6">
-        <v>1.053171651484429</v>
+        <v>1.047403609384025</v>
       </c>
       <c r="L6">
-        <v>1.042263521743737</v>
+        <v>1.037975224357054</v>
       </c>
       <c r="M6">
-        <v>1.056244224787839</v>
+        <v>1.047863786839542</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046453343022927</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04460277062185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029701845001746</v>
+        <v>1.025016226139876</v>
       </c>
       <c r="D7">
-        <v>1.042515780883192</v>
+        <v>1.037086245828645</v>
       </c>
       <c r="E7">
-        <v>1.031400277302038</v>
+        <v>1.027369878053154</v>
       </c>
       <c r="F7">
-        <v>1.045380377483756</v>
+        <v>1.037526536420577</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053609675945934</v>
+        <v>1.05172096220303</v>
       </c>
       <c r="J7">
-        <v>1.048369301724416</v>
+        <v>1.04379509694172</v>
       </c>
       <c r="K7">
-        <v>1.052123952154598</v>
+        <v>1.046753906388087</v>
       </c>
       <c r="L7">
-        <v>1.041131062964526</v>
+        <v>1.037145930156387</v>
       </c>
       <c r="M7">
-        <v>1.054957467913998</v>
+        <v>1.04718934438425</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045919571207337</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044147556251954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022439430080671</v>
+        <v>1.019257893639201</v>
       </c>
       <c r="D8">
-        <v>1.036931582211522</v>
+        <v>1.033211729170253</v>
       </c>
       <c r="E8">
-        <v>1.025437561792373</v>
+        <v>1.022712511435005</v>
       </c>
       <c r="F8">
-        <v>1.03877329857901</v>
+        <v>1.033565730778235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051146659480882</v>
+        <v>1.050082405007252</v>
       </c>
       <c r="J8">
-        <v>1.043416148869257</v>
+        <v>1.040321841008224</v>
       </c>
       <c r="K8">
-        <v>1.047633492245129</v>
+        <v>1.043959861308152</v>
       </c>
       <c r="L8">
-        <v>1.036283646072756</v>
+        <v>1.033593371004738</v>
       </c>
       <c r="M8">
-        <v>1.049452476312705</v>
+        <v>1.044309446317692</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043640338405572</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042176508438511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008952440514</v>
+        <v>1.008626046711099</v>
       </c>
       <c r="D9">
-        <v>1.026590356590494</v>
+        <v>1.026078970667254</v>
       </c>
       <c r="E9">
-        <v>1.014411630163192</v>
+        <v>1.014152802366675</v>
       </c>
       <c r="F9">
-        <v>1.026556508567319</v>
+        <v>1.026328016278367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046500391489325</v>
+        <v>1.046981790343146</v>
       </c>
       <c r="J9">
-        <v>1.034192978102766</v>
+        <v>1.033877831574362</v>
       </c>
       <c r="K9">
-        <v>1.039266267408066</v>
+        <v>1.038762644504541</v>
       </c>
       <c r="L9">
-        <v>1.027275137251784</v>
+        <v>1.027020358863861</v>
       </c>
       <c r="M9">
-        <v>1.039232932905263</v>
+        <v>1.039007908283387</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039444532550313</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038498583247626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.999434420213</v>
+        <v>1.001313832884186</v>
       </c>
       <c r="D10">
-        <v>1.019317038644253</v>
+        <v>1.02121811595666</v>
       </c>
       <c r="E10">
-        <v>1.006666962866767</v>
+        <v>1.008314651080313</v>
       </c>
       <c r="F10">
-        <v>1.017975187215044</v>
+        <v>1.02156574811149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043175404227769</v>
+        <v>1.044850796294232</v>
       </c>
       <c r="J10">
-        <v>1.027670495799529</v>
+        <v>1.029475420591268</v>
       </c>
       <c r="K10">
-        <v>1.033346062430115</v>
+        <v>1.035214554950936</v>
       </c>
       <c r="L10">
-        <v>1.020916877626546</v>
+        <v>1.022535387372367</v>
       </c>
       <c r="M10">
-        <v>1.032027305315607</v>
+        <v>1.035556245574922</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036764309309012</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03600664814855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9951724195769726</v>
+        <v>0.998957644743248</v>
       </c>
       <c r="D11">
-        <v>1.016067224427722</v>
+        <v>1.019798219115326</v>
       </c>
       <c r="E11">
-        <v>1.003208781279348</v>
+        <v>1.006574346770322</v>
       </c>
       <c r="F11">
-        <v>1.014143223336623</v>
+        <v>1.021358633173456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041676320507737</v>
+        <v>1.04448212597912</v>
       </c>
       <c r="J11">
-        <v>1.024747419801493</v>
+        <v>1.028373851297258</v>
       </c>
       <c r="K11">
-        <v>1.030692366818472</v>
+        <v>1.034356184999205</v>
       </c>
       <c r="L11">
-        <v>1.018070437329792</v>
+        <v>1.021373336481945</v>
       </c>
       <c r="M11">
-        <v>1.028803258670826</v>
+        <v>1.035888692805621</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037464122808444</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035432564383814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9935667176662765</v>
+        <v>0.9983771344903449</v>
       </c>
       <c r="D12">
-        <v>1.01484403062747</v>
+        <v>1.019512822952577</v>
       </c>
       <c r="E12">
-        <v>1.00190747941277</v>
+        <v>1.006214560608966</v>
       </c>
       <c r="F12">
-        <v>1.012701225476136</v>
+        <v>1.021928441717569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041110073430387</v>
+        <v>1.044544383918954</v>
       </c>
       <c r="J12">
-        <v>1.023645863327422</v>
+        <v>1.028250336058118</v>
       </c>
       <c r="K12">
-        <v>1.029692262965776</v>
+        <v>1.034275498861663</v>
       </c>
       <c r="L12">
-        <v>1.016998226143826</v>
+        <v>1.021223660147577</v>
       </c>
       <c r="M12">
-        <v>1.027589069506423</v>
+        <v>1.036647250072802</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038390653265157</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035375516744503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9939121942850799</v>
+        <v>0.999146642827115</v>
       </c>
       <c r="D13">
-        <v>1.015107153664161</v>
+        <v>1.020104527473481</v>
       </c>
       <c r="E13">
-        <v>1.00218739026416</v>
+        <v>1.006911801756337</v>
       </c>
       <c r="F13">
-        <v>1.01301140229194</v>
+        <v>1.023163346123705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041231970255759</v>
+        <v>1.044960833175506</v>
       </c>
       <c r="J13">
-        <v>1.023882881954223</v>
+        <v>1.028894408893891</v>
       </c>
       <c r="K13">
-        <v>1.029907454891041</v>
+        <v>1.034813656863702</v>
       </c>
       <c r="L13">
-        <v>1.017228909471939</v>
+        <v>1.021864176580928</v>
       </c>
       <c r="M13">
-        <v>1.027850287248586</v>
+        <v>1.037817241577604</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039592380464821</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035753521030897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995040161906716</v>
+        <v>1.000290605661044</v>
       </c>
       <c r="D14">
-        <v>1.015966448609451</v>
+        <v>1.020912600447656</v>
       </c>
       <c r="E14">
-        <v>1.003101563956528</v>
+        <v>1.007873245053512</v>
       </c>
       <c r="F14">
-        <v>1.01402441469398</v>
+        <v>1.024314602752537</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041629709605113</v>
+        <v>1.045408784252933</v>
       </c>
       <c r="J14">
-        <v>1.024656692840066</v>
+        <v>1.029686936879439</v>
       </c>
       <c r="K14">
-        <v>1.03060999692612</v>
+        <v>1.035467092000601</v>
       </c>
       <c r="L14">
-        <v>1.017982117819014</v>
+        <v>1.022664971518366</v>
       </c>
       <c r="M14">
-        <v>1.028703238948239</v>
+        <v>1.038808488063001</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.0405491830537</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036216943361897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9957320981611302</v>
+        <v>1.000876056888357</v>
       </c>
       <c r="D15">
-        <v>1.016493728605051</v>
+        <v>1.021313106942046</v>
       </c>
       <c r="E15">
-        <v>1.003662560134395</v>
+        <v>1.008350029788415</v>
       </c>
       <c r="F15">
-        <v>1.014646058622547</v>
+        <v>1.024774593376113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041873505755468</v>
+        <v>1.045604877397418</v>
       </c>
       <c r="J15">
-        <v>1.025131340230751</v>
+        <v>1.030061567644981</v>
       </c>
       <c r="K15">
-        <v>1.031040920995546</v>
+        <v>1.035774219563311</v>
       </c>
       <c r="L15">
-        <v>1.0184441893816</v>
+        <v>1.023045113873959</v>
       </c>
       <c r="M15">
-        <v>1.029226534494043</v>
+        <v>1.03917452737662</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040876014397614</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036439954688704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99971418913567</v>
+        <v>1.003818753186968</v>
       </c>
       <c r="D16">
-        <v>1.019530520558155</v>
+        <v>1.023252286601811</v>
       </c>
       <c r="E16">
-        <v>1.006894177673116</v>
+        <v>1.01067608710092</v>
       </c>
       <c r="F16">
-        <v>1.018226955638729</v>
+        <v>1.026596761573428</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043273601087488</v>
+        <v>1.046437226722808</v>
       </c>
       <c r="J16">
-        <v>1.027862329749702</v>
+        <v>1.031805372001371</v>
       </c>
       <c r="K16">
-        <v>1.033520207985598</v>
+        <v>1.037178549161601</v>
       </c>
       <c r="L16">
-        <v>1.021103746034993</v>
+        <v>1.024819100757132</v>
       </c>
       <c r="M16">
-        <v>1.032238999629995</v>
+        <v>1.040466534816246</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041858528326218</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037436019862519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002173396382585</v>
+        <v>1.005483692311314</v>
       </c>
       <c r="D17">
-        <v>1.021407868297056</v>
+        <v>1.024322968107584</v>
       </c>
       <c r="E17">
-        <v>1.008892543955175</v>
+        <v>1.011964432209007</v>
       </c>
       <c r="F17">
-        <v>1.020441248433044</v>
+        <v>1.027391340929422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044135613321536</v>
+        <v>1.046842462883875</v>
       </c>
       <c r="J17">
-        <v>1.029548309620669</v>
+        <v>1.032732759187137</v>
       </c>
       <c r="K17">
-        <v>1.035050670593481</v>
+        <v>1.037917556985234</v>
       </c>
       <c r="L17">
-        <v>1.02274643070592</v>
+        <v>1.025765884008452</v>
       </c>
       <c r="M17">
-        <v>1.034100116173652</v>
+        <v>1.040935561284542</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04210033402855</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037961103601224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003594347633501</v>
+        <v>1.006167463392176</v>
       </c>
       <c r="D18">
-        <v>1.02249327506743</v>
+        <v>1.024707969202941</v>
       </c>
       <c r="E18">
-        <v>1.010048131828449</v>
+        <v>1.012440961776346</v>
       </c>
       <c r="F18">
-        <v>1.021721681690948</v>
+        <v>1.027259089006104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044632721187145</v>
+        <v>1.046887772094806</v>
       </c>
       <c r="J18">
-        <v>1.030522249202937</v>
+        <v>1.032999479276052</v>
       </c>
       <c r="K18">
-        <v>1.03593472104786</v>
+        <v>1.038113417608252</v>
       </c>
       <c r="L18">
-        <v>1.023695646568701</v>
+        <v>1.026048348711711</v>
       </c>
       <c r="M18">
-        <v>1.03517571623698</v>
+        <v>1.040623318430303</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041615992877418</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038087973358871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004076614464295</v>
+        <v>1.005968794950356</v>
       </c>
       <c r="D19">
-        <v>1.02286176770229</v>
+        <v>1.02448836815818</v>
       </c>
       <c r="E19">
-        <v>1.01044048738959</v>
+        <v>1.012191786624834</v>
       </c>
       <c r="F19">
-        <v>1.022156423276988</v>
+        <v>1.026241924125233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044801271746705</v>
+        <v>1.046616262910423</v>
       </c>
       <c r="J19">
-        <v>1.03085275975613</v>
+        <v>1.032674868936897</v>
       </c>
       <c r="K19">
-        <v>1.036234718115268</v>
+        <v>1.037835025772517</v>
       </c>
       <c r="L19">
-        <v>1.024017815392394</v>
+        <v>1.025739907839678</v>
       </c>
       <c r="M19">
-        <v>1.035540808466858</v>
+        <v>1.039560356555354</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040450116331166</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037897523549134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00191094947743</v>
+        <v>1.003263370676638</v>
       </c>
       <c r="D20">
-        <v>1.021207448348566</v>
+        <v>1.022533979795226</v>
       </c>
       <c r="E20">
-        <v>1.008679182439658</v>
+        <v>1.009877641672953</v>
       </c>
       <c r="F20">
-        <v>1.020204834806533</v>
+        <v>1.022831609912607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044043719546206</v>
+        <v>1.045442219896531</v>
       </c>
       <c r="J20">
-        <v>1.029368405454764</v>
+        <v>1.030669071885927</v>
       </c>
       <c r="K20">
-        <v>1.03488736628243</v>
+        <v>1.036191840460999</v>
       </c>
       <c r="L20">
-        <v>1.02257111658226</v>
+        <v>1.023749000200132</v>
       </c>
       <c r="M20">
-        <v>1.033901473013328</v>
+        <v>1.036484531769011</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037488380729328</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03673965532892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9947086400988248</v>
+        <v>0.9975827092769353</v>
       </c>
       <c r="D21">
-        <v>1.015713859535604</v>
+        <v>1.018738209499131</v>
       </c>
       <c r="E21">
-        <v>1.002832834682044</v>
+        <v>1.005328754689746</v>
       </c>
       <c r="F21">
-        <v>1.013726632219844</v>
+        <v>1.018893053862248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041512849617036</v>
+        <v>1.043708549636543</v>
       </c>
       <c r="J21">
-        <v>1.024429268941125</v>
+        <v>1.027181845244568</v>
       </c>
       <c r="K21">
-        <v>1.030403520612331</v>
+        <v>1.033373069184984</v>
       </c>
       <c r="L21">
-        <v>1.017760736160644</v>
+        <v>1.020209870584819</v>
       </c>
       <c r="M21">
-        <v>1.028452533736713</v>
+        <v>1.033525119140471</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035105253006469</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034749920289638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900486438306091</v>
+        <v>0.9939627381303753</v>
       </c>
       <c r="D22">
-        <v>1.012166306558012</v>
+        <v>1.016325574616483</v>
       </c>
       <c r="E22">
-        <v>0.9990593343565634</v>
+        <v>1.002442160175863</v>
       </c>
       <c r="F22">
-        <v>1.009545045951922</v>
+        <v>1.016482639824742</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03986680258092</v>
+        <v>1.042607902870685</v>
       </c>
       <c r="J22">
-        <v>1.021231912065871</v>
+        <v>1.024970218852801</v>
       </c>
       <c r="K22">
-        <v>1.027500538973924</v>
+        <v>1.031580410945525</v>
       </c>
       <c r="L22">
-        <v>1.014649449077563</v>
+        <v>1.01796539214535</v>
       </c>
       <c r="M22">
-        <v>1.024929755833962</v>
+        <v>1.031734494589338</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033688081596952</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033468929682327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925320009326737</v>
+        <v>0.9958717377796379</v>
       </c>
       <c r="D23">
-        <v>1.014056146383904</v>
+        <v>1.017589558601186</v>
       </c>
       <c r="E23">
-        <v>1.001069371851052</v>
+        <v>1.00396048620987</v>
       </c>
       <c r="F23">
-        <v>1.011772488344323</v>
+        <v>1.017755736219715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040744777233482</v>
+        <v>1.043182332428783</v>
       </c>
       <c r="J23">
-        <v>1.022935945736621</v>
+        <v>1.026130400331294</v>
       </c>
       <c r="K23">
-        <v>1.029047712805869</v>
+        <v>1.032515499919227</v>
       </c>
       <c r="L23">
-        <v>1.016307352926431</v>
+        <v>1.019142888447909</v>
       </c>
       <c r="M23">
-        <v>1.026806786966587</v>
+        <v>1.032678605790629</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034435289065341</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034120436067302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002029579431906</v>
+        <v>1.003243110457009</v>
       </c>
       <c r="D24">
-        <v>1.021298039147941</v>
+        <v>1.022496002590032</v>
       </c>
       <c r="E24">
-        <v>1.008775622228632</v>
+        <v>1.009844612903362</v>
       </c>
       <c r="F24">
-        <v>1.020311694244853</v>
+        <v>1.022691950429312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044085259932065</v>
+        <v>1.045395277084368</v>
       </c>
       <c r="J24">
-        <v>1.0294497255797</v>
+        <v>1.030616888522855</v>
       </c>
       <c r="K24">
-        <v>1.034961183116484</v>
+        <v>1.036139253933189</v>
       </c>
       <c r="L24">
-        <v>1.02265036103162</v>
+        <v>1.02370102394866</v>
       </c>
       <c r="M24">
-        <v>1.033991262004599</v>
+        <v>1.036331953695429</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037326687672993</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036675100983964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012527053172485</v>
+        <v>1.011461458784479</v>
       </c>
       <c r="D25">
-        <v>1.029327344595764</v>
+        <v>1.027989905915965</v>
       </c>
       <c r="E25">
-        <v>1.017328021018108</v>
+        <v>1.016434952656309</v>
       </c>
       <c r="F25">
-        <v>1.029787870063535</v>
+        <v>1.028244094318402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047739963858435</v>
+        <v>1.047827286072362</v>
       </c>
       <c r="J25">
-        <v>1.036640063526199</v>
+        <v>1.035609161324249</v>
       </c>
       <c r="K25">
-        <v>1.041486832185587</v>
+        <v>1.040168715004523</v>
       </c>
       <c r="L25">
-        <v>1.029663167820256</v>
+        <v>1.028783384017796</v>
       </c>
       <c r="M25">
-        <v>1.041940719321802</v>
+        <v>1.040419226335062</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04056149693321</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039521265159883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017721889860573</v>
+        <v>1.016386360959328</v>
       </c>
       <c r="D2">
-        <v>1.032169632037701</v>
+        <v>1.030467682798438</v>
       </c>
       <c r="E2">
-        <v>1.021469302524346</v>
+        <v>1.020383222331754</v>
       </c>
       <c r="F2">
-        <v>1.032518416407984</v>
+        <v>1.031912336647869</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049631600769997</v>
+        <v>1.048876072818943</v>
       </c>
       <c r="J2">
-        <v>1.039385160818721</v>
+        <v>1.038087766172021</v>
       </c>
       <c r="K2">
-        <v>1.043198272152525</v>
+        <v>1.041518265857359</v>
       </c>
       <c r="L2">
-        <v>1.032637424173628</v>
+        <v>1.031565706460227</v>
       </c>
       <c r="M2">
-        <v>1.043542570873071</v>
+        <v>1.042944288220583</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04303341028505</v>
+        <v>1.042559911181684</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041615202383298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040436042397257</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022884547673527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022164629352276</v>
+        <v>1.020607560362102</v>
       </c>
       <c r="D3">
-        <v>1.03515669127276</v>
+        <v>1.033186935492109</v>
       </c>
       <c r="E3">
-        <v>1.025058262819032</v>
+        <v>1.023769034526382</v>
       </c>
       <c r="F3">
-        <v>1.035565712094499</v>
+        <v>1.034854169611966</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050904945118584</v>
+        <v>1.050004799032245</v>
       </c>
       <c r="J3">
-        <v>1.042068774747332</v>
+        <v>1.040551783233311</v>
       </c>
       <c r="K3">
-        <v>1.045358660823247</v>
+        <v>1.043412087404379</v>
       </c>
       <c r="L3">
-        <v>1.035380251724178</v>
+        <v>1.034106557408929</v>
       </c>
       <c r="M3">
-        <v>1.04576288150002</v>
+        <v>1.045059692486839</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044790629013227</v>
+        <v>1.044234105132132</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043140120977097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.0417721972291</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023308304419377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024982717923625</v>
+        <v>1.023287168798214</v>
       </c>
       <c r="D4">
-        <v>1.037055426338374</v>
+        <v>1.034917252865705</v>
       </c>
       <c r="E4">
-        <v>1.027340055310879</v>
+        <v>1.025923821550653</v>
       </c>
       <c r="F4">
-        <v>1.037507019772457</v>
+        <v>1.036729625549857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051704418024314</v>
+        <v>1.05071343856741</v>
       </c>
       <c r="J4">
-        <v>1.04376825556448</v>
+        <v>1.042113379011317</v>
       </c>
       <c r="K4">
-        <v>1.046726285202704</v>
+        <v>1.044611759074514</v>
       </c>
       <c r="L4">
-        <v>1.037119338566168</v>
+        <v>1.035719121455939</v>
       </c>
       <c r="M4">
-        <v>1.047172899514639</v>
+        <v>1.046404079898303</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04590655629242</v>
+        <v>1.045298091381333</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044108031767476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042621434085932</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023574230025785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026159723919994</v>
+        <v>1.024406664123884</v>
       </c>
       <c r="D5">
-        <v>1.037851872334759</v>
+        <v>1.035643607907637</v>
       </c>
       <c r="E5">
-        <v>1.028295095407349</v>
+        <v>1.02682606544452</v>
       </c>
       <c r="F5">
-        <v>1.038318690217825</v>
+        <v>1.037513955606731</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052038449790945</v>
+        <v>1.051009614380822</v>
       </c>
       <c r="J5">
-        <v>1.044479376571013</v>
+        <v>1.042767105949553</v>
       </c>
       <c r="K5">
-        <v>1.047300252477163</v>
+        <v>1.045115760492603</v>
       </c>
       <c r="L5">
-        <v>1.037847259240512</v>
+        <v>1.036394392970287</v>
       </c>
       <c r="M5">
-        <v>1.047762060828348</v>
+        <v>1.046965965459224</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046372834359005</v>
+        <v>1.045742783060268</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044520998391783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042985644115532</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023686087358684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026363153369693</v>
+        <v>1.024600009160955</v>
       </c>
       <c r="D6">
-        <v>1.037992614365596</v>
+        <v>1.035772147736667</v>
       </c>
       <c r="E6">
-        <v>1.028461201036815</v>
+        <v>1.026982848999174</v>
       </c>
       <c r="F6">
-        <v>1.038457760466353</v>
+        <v>1.037648220331672</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052098664571385</v>
+        <v>1.051063139447032</v>
       </c>
       <c r="J6">
-        <v>1.044604689398761</v>
+        <v>1.042882356689329</v>
       </c>
       <c r="K6">
-        <v>1.047403609384025</v>
+        <v>1.045206936918953</v>
       </c>
       <c r="L6">
-        <v>1.037975224357054</v>
+        <v>1.036513062710208</v>
       </c>
       <c r="M6">
-        <v>1.047863786839542</v>
+        <v>1.047062897648747</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046453343022927</v>
+        <v>1.045819497832451</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04460277062185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043059677386699</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023707195801702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025016226139876</v>
+        <v>1.023318548849068</v>
       </c>
       <c r="D7">
-        <v>1.037086245828645</v>
+        <v>1.034945762753837</v>
       </c>
       <c r="E7">
-        <v>1.027369878053154</v>
+        <v>1.025951510768878</v>
       </c>
       <c r="F7">
-        <v>1.037526536420577</v>
+        <v>1.036748095596953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05172096220303</v>
+        <v>1.050728454078346</v>
       </c>
       <c r="J7">
-        <v>1.04379509694172</v>
+        <v>1.042138125004784</v>
       </c>
       <c r="K7">
-        <v>1.046753906388087</v>
+        <v>1.044637086654411</v>
       </c>
       <c r="L7">
-        <v>1.037145930156387</v>
+        <v>1.035743597190483</v>
       </c>
       <c r="M7">
-        <v>1.04718934438425</v>
+        <v>1.046419486467002</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045919571207337</v>
+        <v>1.045310284566914</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044147556251954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042661346490372</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023582320238509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019257893639201</v>
+        <v>1.017844601604352</v>
       </c>
       <c r="D8">
-        <v>1.033211729170253</v>
+        <v>1.031416387749813</v>
       </c>
       <c r="E8">
-        <v>1.022712511435005</v>
+        <v>1.021554881656148</v>
       </c>
       <c r="F8">
-        <v>1.033565730778235</v>
+        <v>1.032922570583962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050082405007252</v>
+        <v>1.04927603047878</v>
       </c>
       <c r="J8">
-        <v>1.040321841008224</v>
+        <v>1.038947535960069</v>
       </c>
       <c r="K8">
-        <v>1.043959861308152</v>
+        <v>1.042186977140761</v>
       </c>
       <c r="L8">
-        <v>1.033593371004738</v>
+        <v>1.032450584326506</v>
       </c>
       <c r="M8">
-        <v>1.044309446317692</v>
+        <v>1.043674313124764</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043640338405572</v>
+        <v>1.043137675071937</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042176508438511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04093395387266</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023037839615912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008626046711099</v>
+        <v>1.007756427584486</v>
       </c>
       <c r="D9">
-        <v>1.026078970667254</v>
+        <v>1.024933813730909</v>
       </c>
       <c r="E9">
-        <v>1.014152802366675</v>
+        <v>1.01349342224393</v>
       </c>
       <c r="F9">
-        <v>1.026328016278367</v>
+        <v>1.025944070098627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046981790343146</v>
+        <v>1.046527407278058</v>
       </c>
       <c r="J9">
-        <v>1.033877831574362</v>
+        <v>1.033038228506169</v>
       </c>
       <c r="K9">
-        <v>1.038762644504541</v>
+        <v>1.037634907277536</v>
       </c>
       <c r="L9">
-        <v>1.027020358863861</v>
+        <v>1.026371306819723</v>
       </c>
       <c r="M9">
-        <v>1.039007908283387</v>
+        <v>1.038629793418611</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039444532550313</v>
+        <v>1.039145279485287</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038498583247626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037711917000147</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022002378951575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001313832884186</v>
+        <v>1.000825017898892</v>
       </c>
       <c r="D10">
-        <v>1.02121811595666</v>
+        <v>1.020522798520546</v>
       </c>
       <c r="E10">
-        <v>1.008314651080313</v>
+        <v>1.008001941789826</v>
       </c>
       <c r="F10">
-        <v>1.02156574811149</v>
+        <v>1.021363463240846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044850796294232</v>
+        <v>1.044638476291401</v>
       </c>
       <c r="J10">
-        <v>1.029475420591268</v>
+        <v>1.029005940997918</v>
       </c>
       <c r="K10">
-        <v>1.035214554950936</v>
+        <v>1.034531137178903</v>
       </c>
       <c r="L10">
-        <v>1.022535387372367</v>
+        <v>1.022228206254511</v>
       </c>
       <c r="M10">
-        <v>1.035556245574922</v>
+        <v>1.035357417406471</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036764309309012</v>
+        <v>1.0366069591588</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03600664814855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035535836731022</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021293061555476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.998957644743248</v>
+        <v>0.9985375895801587</v>
       </c>
       <c r="D11">
-        <v>1.019798219115326</v>
+        <v>1.019195767481414</v>
       </c>
       <c r="E11">
-        <v>1.006574346770322</v>
+        <v>1.006312065298641</v>
       </c>
       <c r="F11">
-        <v>1.021358633173456</v>
+        <v>1.021187601514371</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04448212597912</v>
+        <v>1.044304058346778</v>
       </c>
       <c r="J11">
-        <v>1.028373851297258</v>
+        <v>1.027971333341119</v>
       </c>
       <c r="K11">
-        <v>1.034356184999205</v>
+        <v>1.033764537240363</v>
       </c>
       <c r="L11">
-        <v>1.021373336481945</v>
+        <v>1.02111591901275</v>
       </c>
       <c r="M11">
-        <v>1.035888692805621</v>
+        <v>1.0357207144521</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037464122808444</v>
+        <v>1.037331253935806</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035432564383814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035029865590126</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021189270278121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9983771344903449</v>
+        <v>0.9979440460088291</v>
       </c>
       <c r="D12">
-        <v>1.019512822952577</v>
+        <v>1.018904845725503</v>
       </c>
       <c r="E12">
-        <v>1.006214560608966</v>
+        <v>1.005930777780332</v>
       </c>
       <c r="F12">
-        <v>1.021928441717569</v>
+        <v>1.021749908061332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044544383918954</v>
+        <v>1.04435084731287</v>
       </c>
       <c r="J12">
-        <v>1.028250336058118</v>
+        <v>1.027835673094764</v>
       </c>
       <c r="K12">
-        <v>1.034275498861663</v>
+        <v>1.033678605126421</v>
       </c>
       <c r="L12">
-        <v>1.021223660147577</v>
+        <v>1.020945228735876</v>
       </c>
       <c r="M12">
-        <v>1.036647250072802</v>
+        <v>1.036471949349587</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038390653265157</v>
+        <v>1.038252039473608</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035375516744503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034969110088217</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02122353878806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.999146642827115</v>
+        <v>0.9986348600972202</v>
       </c>
       <c r="D13">
-        <v>1.020104527473481</v>
+        <v>1.01941309664705</v>
       </c>
       <c r="E13">
-        <v>1.006911801756337</v>
+        <v>1.006548040781957</v>
       </c>
       <c r="F13">
-        <v>1.023163346123705</v>
+        <v>1.022946397431414</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044960833175506</v>
+        <v>1.044711400751603</v>
       </c>
       <c r="J13">
-        <v>1.028894408893891</v>
+        <v>1.028404274840769</v>
       </c>
       <c r="K13">
-        <v>1.034813656863702</v>
+        <v>1.034134771149527</v>
       </c>
       <c r="L13">
-        <v>1.021864176580928</v>
+        <v>1.021507240540087</v>
       </c>
       <c r="M13">
-        <v>1.037817241577604</v>
+        <v>1.037604196244145</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039592380464821</v>
+        <v>1.039423963537968</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035753521030897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035288893721868</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021375878379212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000290605661044</v>
+        <v>0.9996950793337783</v>
       </c>
       <c r="D14">
-        <v>1.020912600447656</v>
+        <v>1.020128463136516</v>
       </c>
       <c r="E14">
-        <v>1.007873245053512</v>
+        <v>1.007428058404429</v>
       </c>
       <c r="F14">
-        <v>1.024314602752537</v>
+        <v>1.02405735774117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045408784252933</v>
+        <v>1.045102572627873</v>
       </c>
       <c r="J14">
-        <v>1.029686936879439</v>
+        <v>1.029116221062499</v>
       </c>
       <c r="K14">
-        <v>1.035467092000601</v>
+        <v>1.034696998461407</v>
       </c>
       <c r="L14">
-        <v>1.022664971518366</v>
+        <v>1.022228025850914</v>
       </c>
       <c r="M14">
-        <v>1.038808488063001</v>
+        <v>1.038555807578694</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.0405491830537</v>
+        <v>1.040349460571279</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036216943361897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035687960611897</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021535318233223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000876056888357</v>
+        <v>1.000244887728925</v>
       </c>
       <c r="D15">
-        <v>1.021313106942046</v>
+        <v>1.0204882761653</v>
       </c>
       <c r="E15">
-        <v>1.008350029788415</v>
+        <v>1.007871342267222</v>
       </c>
       <c r="F15">
-        <v>1.024774593376113</v>
+        <v>1.024500374271046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045604877397418</v>
+        <v>1.045275328870781</v>
       </c>
       <c r="J15">
-        <v>1.030061567644981</v>
+        <v>1.029456455388577</v>
       </c>
       <c r="K15">
-        <v>1.035774219563311</v>
+        <v>1.034964046390058</v>
       </c>
       <c r="L15">
-        <v>1.023045113873959</v>
+        <v>1.022575216324471</v>
       </c>
       <c r="M15">
-        <v>1.03917452737662</v>
+        <v>1.038905135298322</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040876014397614</v>
+        <v>1.040663088397031</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036439954688704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035883204145974</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021603753708202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003818753186968</v>
+        <v>1.003042088485634</v>
       </c>
       <c r="D16">
-        <v>1.023252286601811</v>
+        <v>1.022253744601315</v>
       </c>
       <c r="E16">
-        <v>1.01067608710092</v>
+        <v>1.010067299283687</v>
       </c>
       <c r="F16">
-        <v>1.026596761573428</v>
+        <v>1.026254218020534</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046437226722808</v>
+        <v>1.046017094925469</v>
       </c>
       <c r="J16">
-        <v>1.031805372001371</v>
+        <v>1.031059127028951</v>
       </c>
       <c r="K16">
-        <v>1.037178549161601</v>
+        <v>1.036196965389248</v>
       </c>
       <c r="L16">
-        <v>1.024819100757132</v>
+        <v>1.024220982883644</v>
       </c>
       <c r="M16">
-        <v>1.040466534816246</v>
+        <v>1.040129755113965</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041858528326218</v>
+        <v>1.041592331887184</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037436019862519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03675837083543</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021879733926347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005483692311314</v>
+        <v>1.004638892931852</v>
       </c>
       <c r="D17">
-        <v>1.024322968107584</v>
+        <v>1.023239252540798</v>
       </c>
       <c r="E17">
-        <v>1.011964432209007</v>
+        <v>1.011297975470202</v>
       </c>
       <c r="F17">
-        <v>1.027391340929422</v>
+        <v>1.027017155349772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046842462883875</v>
+        <v>1.046382158674101</v>
       </c>
       <c r="J17">
-        <v>1.032732759187137</v>
+        <v>1.031919965156879</v>
       </c>
       <c r="K17">
-        <v>1.037917556985234</v>
+        <v>1.036851723923066</v>
       </c>
       <c r="L17">
-        <v>1.025765884008452</v>
+        <v>1.025110768269941</v>
       </c>
       <c r="M17">
-        <v>1.040935561284542</v>
+        <v>1.040567497391323</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04210033402855</v>
+        <v>1.041809381097041</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037961103601224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037224133004472</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022008255709541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006167463392176</v>
+        <v>1.005317811775382</v>
       </c>
       <c r="D18">
-        <v>1.024707969202941</v>
+        <v>1.023611076462184</v>
       </c>
       <c r="E18">
-        <v>1.012440961776346</v>
+        <v>1.011777035522327</v>
       </c>
       <c r="F18">
-        <v>1.027259089006104</v>
+        <v>1.026883301597715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046887772094806</v>
+        <v>1.046429444313668</v>
       </c>
       <c r="J18">
-        <v>1.032999479276052</v>
+        <v>1.03218141307536</v>
       </c>
       <c r="K18">
-        <v>1.038113417608252</v>
+        <v>1.037034328722763</v>
       </c>
       <c r="L18">
-        <v>1.026048348711711</v>
+        <v>1.025395531991744</v>
       </c>
       <c r="M18">
-        <v>1.040623318430303</v>
+        <v>1.040253586192764</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041615992877418</v>
+        <v>1.041323660347909</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038087973358871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037340490281416</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022010406869323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005968794950356</v>
+        <v>1.005168790298063</v>
       </c>
       <c r="D19">
-        <v>1.02448836815818</v>
+        <v>1.023441282097209</v>
       </c>
       <c r="E19">
-        <v>1.012191786624834</v>
+        <v>1.011581598543863</v>
       </c>
       <c r="F19">
-        <v>1.026241924125233</v>
+        <v>1.025890319724872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046616262910423</v>
+        <v>1.046195819450363</v>
       </c>
       <c r="J19">
-        <v>1.032674868936897</v>
+        <v>1.031904444825348</v>
       </c>
       <c r="K19">
-        <v>1.037835025772517</v>
+        <v>1.036804852783554</v>
       </c>
       <c r="L19">
-        <v>1.025739907839678</v>
+        <v>1.025139881207141</v>
       </c>
       <c r="M19">
-        <v>1.039560356555354</v>
+        <v>1.039214401647345</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040450116331166</v>
+        <v>1.040176494310697</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037897523549134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037185253962175</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021907024093426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003263370676638</v>
+        <v>1.002669544862103</v>
       </c>
       <c r="D20">
-        <v>1.022533979795226</v>
+        <v>1.021716183271779</v>
       </c>
       <c r="E20">
-        <v>1.009877641672953</v>
+        <v>1.009468716062019</v>
       </c>
       <c r="F20">
-        <v>1.022831609912607</v>
+        <v>1.022579115499436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045442219896531</v>
+        <v>1.045162898286682</v>
       </c>
       <c r="J20">
-        <v>1.030669071885927</v>
+        <v>1.030097946479546</v>
       </c>
       <c r="K20">
-        <v>1.036191840460999</v>
+        <v>1.035387633355077</v>
       </c>
       <c r="L20">
-        <v>1.023749000200132</v>
+        <v>1.023347088086366</v>
       </c>
       <c r="M20">
-        <v>1.036484531769011</v>
+        <v>1.036236226955041</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037488380729328</v>
+        <v>1.037291873037968</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03673965532892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036187549912064</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021496811240368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9975827092769353</v>
+        <v>0.9973005896559927</v>
       </c>
       <c r="D21">
-        <v>1.018738209499131</v>
+        <v>1.018283308387142</v>
       </c>
       <c r="E21">
-        <v>1.005328754689746</v>
+        <v>1.005205265478454</v>
       </c>
       <c r="F21">
-        <v>1.018893053862248</v>
+        <v>1.018789536475634</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043708549636543</v>
+        <v>1.043627505715563</v>
       </c>
       <c r="J21">
-        <v>1.027181845244568</v>
+        <v>1.02691160727095</v>
       </c>
       <c r="K21">
-        <v>1.033373069184984</v>
+        <v>1.03292638386337</v>
       </c>
       <c r="L21">
-        <v>1.020209870584819</v>
+        <v>1.020088689026423</v>
       </c>
       <c r="M21">
-        <v>1.033525119140471</v>
+        <v>1.033423469763924</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035105253006469</v>
+        <v>1.035024803727663</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034749920289638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034450938224088</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020915305149895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9939627381303753</v>
+        <v>0.9938807396245584</v>
       </c>
       <c r="D22">
-        <v>1.016325574616483</v>
+        <v>1.016101926049894</v>
       </c>
       <c r="E22">
-        <v>1.002442160175863</v>
+        <v>1.002501156292585</v>
       </c>
       <c r="F22">
-        <v>1.016482639824742</v>
+        <v>1.016474782046631</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042607902870685</v>
+        <v>1.042652848157596</v>
       </c>
       <c r="J22">
-        <v>1.024970218852801</v>
+        <v>1.024891882686766</v>
       </c>
       <c r="K22">
-        <v>1.031580410945525</v>
+        <v>1.031361009973541</v>
       </c>
       <c r="L22">
-        <v>1.01796539214535</v>
+        <v>1.018023227091936</v>
       </c>
       <c r="M22">
-        <v>1.031734494589338</v>
+        <v>1.03172678594658</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033688081596952</v>
+        <v>1.033681980664652</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033468929682327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033329352068553</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020544273198128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9958717377796379</v>
+        <v>0.9956846876434361</v>
       </c>
       <c r="D23">
-        <v>1.017589558601186</v>
+        <v>1.017244370426909</v>
       </c>
       <c r="E23">
-        <v>1.00396048620987</v>
+        <v>1.003923986906979</v>
       </c>
       <c r="F23">
-        <v>1.017755736219715</v>
+        <v>1.017697706907601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043182332428783</v>
+        <v>1.043161442753316</v>
       </c>
       <c r="J23">
-        <v>1.026130400331294</v>
+        <v>1.025951450300807</v>
       </c>
       <c r="K23">
-        <v>1.032515499919227</v>
+        <v>1.032176696634338</v>
       </c>
       <c r="L23">
-        <v>1.019142888447909</v>
+        <v>1.019107088196893</v>
       </c>
       <c r="M23">
-        <v>1.032678605790629</v>
+        <v>1.03262164898564</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034435289065341</v>
+        <v>1.034390211188084</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034120436067302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033895485886182</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020735486347635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003243110457009</v>
+        <v>1.002656585229682</v>
       </c>
       <c r="D24">
-        <v>1.022496002590032</v>
+        <v>1.021685205295597</v>
       </c>
       <c r="E24">
-        <v>1.009844612903362</v>
+        <v>1.009443741383428</v>
       </c>
       <c r="F24">
-        <v>1.022691950429312</v>
+        <v>1.022443094135273</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045395277084368</v>
+        <v>1.045121649536227</v>
       </c>
       <c r="J24">
-        <v>1.030616888522855</v>
+        <v>1.030052754201913</v>
       </c>
       <c r="K24">
-        <v>1.036139253933189</v>
+        <v>1.035341913657336</v>
       </c>
       <c r="L24">
-        <v>1.02370102394866</v>
+        <v>1.0233070194594</v>
       </c>
       <c r="M24">
-        <v>1.036331953695429</v>
+        <v>1.036087222776122</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037326687672993</v>
+        <v>1.037132998675093</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036675100983964</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036125170427807</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021475932093126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011461458784479</v>
+        <v>1.010443457370372</v>
       </c>
       <c r="D25">
-        <v>1.027989905915965</v>
+        <v>1.026669008231001</v>
       </c>
       <c r="E25">
-        <v>1.016434952656309</v>
+        <v>1.015639344056284</v>
       </c>
       <c r="F25">
-        <v>1.028244094318402</v>
+        <v>1.027789282406324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047827286072362</v>
+        <v>1.047277118963427</v>
       </c>
       <c r="J25">
-        <v>1.035609161324249</v>
+        <v>1.034624397525619</v>
       </c>
       <c r="K25">
-        <v>1.040168715004523</v>
+        <v>1.038866962502571</v>
       </c>
       <c r="L25">
-        <v>1.028783384017796</v>
+        <v>1.027999635272539</v>
       </c>
       <c r="M25">
-        <v>1.040419226335062</v>
+        <v>1.039970995328561</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04056149693321</v>
+        <v>1.040206752087532</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039521265159883</v>
+        <v>1.038614370974281</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022288955091589</v>
       </c>
     </row>
   </sheetData>
